--- a/runs.xlsx
+++ b/runs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Karyna\Desktop\Github\Project_final\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8774674F-F829-416D-9889-D3BFFC818B13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22745EC5-3B61-4519-A17B-1C59D9A295EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-225" windowWidth="29040" windowHeight="15720" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-225" windowWidth="29040" windowHeight="15720" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="predictions" sheetId="1" r:id="rId1"/>
@@ -959,7 +959,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mmm"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1169,18 +1169,6 @@
   <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1224,9 +1212,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1274,6 +1259,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1663,7 +1663,7 @@
       <selection activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="32" customWidth="1"/>
     <col min="2" max="3" width="11.7109375" customWidth="1"/>
@@ -1672,60 +1672,60 @@
     <col min="6" max="6" width="25.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+    <row r="2" spans="1:6">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
+    <row r="5" spans="1:6">
+      <c r="A5" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="F5" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
+    <row r="6" spans="1:6" ht="45">
+      <c r="A6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="10">
+      <c r="C6" s="6">
         <v>45010</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="11" t="s">
+      <c r="E6" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="11" t="s">
+      <c r="F6" s="7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="11"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="11" t="s">
+    <row r="7" spans="1:6">
+      <c r="A7" s="7"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11" t="s">
+      <c r="E7" s="7"/>
+      <c r="F7" s="7" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1743,7 +1743,7 @@
       <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="21.7109375" customWidth="1"/>
     <col min="2" max="2" width="8.85546875" customWidth="1"/>
@@ -1759,645 +1759,667 @@
     <col min="13" max="13" width="12.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+    <row r="2" spans="1:13">
+      <c r="A2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="I2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="J2" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="K2" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="135" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+    <row r="3" spans="1:13" ht="135">
+      <c r="A3" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="11"/>
-      <c r="C3" s="12" t="s">
+      <c r="B3" s="7"/>
+      <c r="C3" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="F3" s="11"/>
-      <c r="G3" s="8" t="s">
+      <c r="F3" s="7"/>
+      <c r="G3" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="H3" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="J3" s="8" t="s">
+      <c r="J3" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="K3" s="8" t="s">
+      <c r="K3" s="4" t="s">
         <v>31</v>
       </c>
       <c r="M3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="135" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
+    <row r="4" spans="1:13" ht="135">
+      <c r="A4" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="F4" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="G4" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="H4" s="11"/>
-      <c r="I4" s="14" t="s">
+      <c r="H4" s="7"/>
+      <c r="I4" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="J4" s="8" t="s">
+      <c r="J4" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="K4" s="8" t="s">
+      <c r="K4" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="L4" s="15" t="s">
+      <c r="L4" s="11" t="s">
         <v>41</v>
       </c>
       <c r="M4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:13" s="16" customFormat="1" ht="120" x14ac:dyDescent="0.25">
-      <c r="A5" s="13" t="s">
+    <row r="5" spans="1:13" s="12" customFormat="1" ht="120">
+      <c r="A5" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11" t="s">
+      <c r="F5" s="7"/>
+      <c r="G5" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="H5" s="8" t="s">
+      <c r="H5" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8" t="s">
+      <c r="I5" s="4"/>
+      <c r="J5" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="K5" s="8" t="s">
+      <c r="K5" s="4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:13" s="16" customFormat="1" ht="120" x14ac:dyDescent="0.25">
-      <c r="A6" s="13" t="s">
+    <row r="6" spans="1:13" s="12" customFormat="1" ht="120">
+      <c r="A6" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="E6" s="11" t="s">
+      <c r="E6" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="F6" s="11" t="s">
+      <c r="F6" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="G6" s="8" t="s">
+      <c r="G6" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="H6" s="8" t="s">
+      <c r="H6" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="I6" s="17" t="s">
+      <c r="I6" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8" t="s">
+      <c r="J6" s="4"/>
+      <c r="K6" s="4" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="7" spans="1:13" s="16" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A7" s="13" t="s">
+    <row r="7" spans="1:13" s="12" customFormat="1" ht="60">
+      <c r="A7" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11" t="s">
+      <c r="B7" s="7"/>
+      <c r="C7" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="E7" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="F7" s="11" t="s">
+      <c r="F7" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8" t="s">
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="11"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="18"/>
-      <c r="K9" s="18"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="11"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11" t="s">
+    <row r="9" spans="1:13">
+      <c r="A9" s="7"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="7"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="J10" s="18"/>
-      <c r="K10" s="18"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="11"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="18"/>
-      <c r="K11" s="18"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="11"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11" t="s">
+      <c r="J10" s="14"/>
+      <c r="K10" s="14"/>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="7"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="14"/>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="7"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="J12" s="18"/>
-      <c r="K12" s="18"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="19"/>
-      <c r="B13" s="19"/>
-      <c r="C13" s="19"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="19"/>
-      <c r="H13" s="19"/>
-      <c r="I13" s="19"/>
-      <c r="J13" s="18"/>
-      <c r="K13" s="18"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="20" t="s">
+      <c r="J12" s="14"/>
+      <c r="K12" s="14"/>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="15"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="14"/>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B14" s="21" t="s">
+      <c r="B14" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="C14" s="21" t="s">
+      <c r="C14" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="D14" s="21" t="s">
+      <c r="D14" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="E14" s="21" t="s">
+      <c r="E14" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="F14" s="21" t="s">
+      <c r="F14" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="G14" s="21" t="s">
+      <c r="G14" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="H14" s="22" t="s">
+      <c r="H14" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="I14" s="22" t="s">
+      <c r="I14" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="J14" s="18"/>
-      <c r="K14" s="18"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
+      <c r="J14" s="14"/>
+      <c r="K14" s="14"/>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" s="38" t="s">
         <v>75</v>
       </c>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="18"/>
-      <c r="K15" s="18"/>
-    </row>
-    <row r="16" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
+      <c r="B15" s="38"/>
+      <c r="C15" s="38"/>
+      <c r="D15" s="38"/>
+      <c r="E15" s="38"/>
+      <c r="F15" s="38"/>
+      <c r="G15" s="38"/>
+      <c r="H15" s="38"/>
+      <c r="I15" s="38"/>
+      <c r="J15" s="14"/>
+      <c r="K15" s="14"/>
+    </row>
+    <row r="16" spans="1:13" ht="30" customHeight="1">
+      <c r="A16" s="36" t="s">
         <v>76</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="36" t="s">
         <v>77</v>
       </c>
-      <c r="D16" s="23" t="s">
+      <c r="D16" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="E16" s="35" t="s">
         <v>79</v>
       </c>
-      <c r="F16" s="3" t="s">
+      <c r="F16" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="G16" s="24" t="s">
+      <c r="G16" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="H16" s="25" t="s">
+      <c r="H16" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="I16" s="3" t="s">
+      <c r="I16" s="35" t="s">
         <v>83</v>
       </c>
-      <c r="J16" s="18"/>
-      <c r="K16" s="18"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="4"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="23" t="s">
+      <c r="J16" s="14"/>
+      <c r="K16" s="14"/>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="36"/>
+      <c r="B17" s="35"/>
+      <c r="C17" s="36"/>
+      <c r="D17" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="24" t="s">
+      <c r="E17" s="35"/>
+      <c r="F17" s="35"/>
+      <c r="G17" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="H17" s="25" t="s">
+      <c r="H17" s="20" t="s">
         <v>86</v>
       </c>
-      <c r="I17" s="3"/>
-      <c r="J17" s="18"/>
-      <c r="K17" s="18"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="4"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="26"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="24" t="s">
+      <c r="I17" s="35"/>
+      <c r="J17" s="14"/>
+      <c r="K17" s="14"/>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="36"/>
+      <c r="B18" s="35"/>
+      <c r="C18" s="36"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="35"/>
+      <c r="F18" s="35"/>
+      <c r="G18" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="H18" s="25" t="s">
+      <c r="H18" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="I18" s="3"/>
-      <c r="J18" s="18"/>
-      <c r="K18" s="18"/>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="4"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="26"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="26"/>
-      <c r="H19" s="27" t="s">
+      <c r="I18" s="35"/>
+      <c r="J18" s="14"/>
+      <c r="K18" s="14"/>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="36"/>
+      <c r="B19" s="35"/>
+      <c r="C19" s="36"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="35"/>
+      <c r="F19" s="35"/>
+      <c r="G19" s="21"/>
+      <c r="H19" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="I19" s="3"/>
-      <c r="J19" s="19"/>
-      <c r="K19" s="19"/>
-    </row>
-    <row r="20" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="4"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="26"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="26"/>
-      <c r="H20" s="25" t="s">
+      <c r="I19" s="35"/>
+      <c r="J19" s="15"/>
+      <c r="K19" s="15"/>
+    </row>
+    <row r="20" spans="1:11" ht="30">
+      <c r="A20" s="36"/>
+      <c r="B20" s="35"/>
+      <c r="C20" s="36"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="35"/>
+      <c r="F20" s="35"/>
+      <c r="G20" s="21"/>
+      <c r="H20" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="I20" s="3"/>
-      <c r="J20" s="19"/>
-      <c r="K20" s="19"/>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="4"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="26"/>
-      <c r="H21" s="25" t="s">
+      <c r="I20" s="35"/>
+      <c r="J20" s="15"/>
+      <c r="K20" s="15"/>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" s="36"/>
+      <c r="B21" s="35"/>
+      <c r="C21" s="36"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="35"/>
+      <c r="F21" s="35"/>
+      <c r="G21" s="21"/>
+      <c r="H21" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="I21" s="3"/>
-      <c r="J21" s="19"/>
-      <c r="K21" s="19"/>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="4"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="26"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="26"/>
-      <c r="H22" s="25" t="s">
+      <c r="I21" s="35"/>
+      <c r="J21" s="15"/>
+      <c r="K21" s="15"/>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" s="36"/>
+      <c r="B22" s="35"/>
+      <c r="C22" s="36"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="35"/>
+      <c r="F22" s="35"/>
+      <c r="G22" s="21"/>
+      <c r="H22" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="I22" s="3"/>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="4"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="28"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="28"/>
-      <c r="H23" s="27" t="s">
+      <c r="I22" s="35"/>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" s="36"/>
+      <c r="B23" s="35"/>
+      <c r="C23" s="36"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="35"/>
+      <c r="F23" s="35"/>
+      <c r="G23" s="23"/>
+      <c r="H23" s="22" t="s">
         <v>92</v>
       </c>
-      <c r="I23" s="3"/>
-    </row>
-    <row r="24" spans="1:11" ht="105" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="29" t="s">
+      <c r="I23" s="35"/>
+    </row>
+    <row r="24" spans="1:11" ht="105" customHeight="1">
+      <c r="A24" s="24" t="s">
         <v>93</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="35" t="s">
         <v>94</v>
       </c>
-      <c r="C24" s="23" t="s">
+      <c r="C24" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="D24" s="4" t="s">
+      <c r="D24" s="36" t="s">
         <v>96</v>
       </c>
-      <c r="E24" s="3" t="s">
+      <c r="E24" s="35" t="s">
         <v>79</v>
       </c>
-      <c r="F24" s="4" t="s">
+      <c r="F24" s="36" t="s">
         <v>97</v>
       </c>
-      <c r="G24" s="30" t="s">
+      <c r="G24" s="25" t="s">
         <v>98</v>
       </c>
-      <c r="H24" s="2">
+      <c r="H24" s="34">
         <v>0.98299999999999998</v>
       </c>
-      <c r="I24" s="3" t="s">
+      <c r="I24" s="35" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="105" x14ac:dyDescent="0.25">
-      <c r="A25" s="31">
+    <row r="25" spans="1:11" ht="105">
+      <c r="A25" s="26">
         <v>2021</v>
       </c>
-      <c r="B25" s="3"/>
-      <c r="C25" s="32" t="s">
+      <c r="B25" s="35"/>
+      <c r="C25" s="27" t="s">
         <v>100</v>
       </c>
-      <c r="D25" s="4"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="33" t="s">
+      <c r="D25" s="36"/>
+      <c r="E25" s="35"/>
+      <c r="F25" s="36"/>
+      <c r="G25" s="28" t="s">
         <v>101</v>
       </c>
-      <c r="H25" s="2"/>
-      <c r="I25" s="3"/>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="5" t="s">
+      <c r="H25" s="34"/>
+      <c r="I25" s="35"/>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26" s="38" t="s">
         <v>102</v>
       </c>
-      <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="5"/>
-    </row>
-    <row r="27" spans="1:11" ht="165" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="4" t="s">
+      <c r="B26" s="38"/>
+      <c r="C26" s="38"/>
+      <c r="D26" s="38"/>
+      <c r="E26" s="38"/>
+      <c r="F26" s="38"/>
+      <c r="G26" s="38"/>
+      <c r="H26" s="38"/>
+      <c r="I26" s="38"/>
+    </row>
+    <row r="27" spans="1:11" ht="165" customHeight="1">
+      <c r="A27" s="36" t="s">
         <v>103</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="C27" s="4" t="s">
+      <c r="C27" s="36" t="s">
         <v>104</v>
       </c>
-      <c r="D27" s="4" t="s">
+      <c r="D27" s="36" t="s">
         <v>105</v>
       </c>
-      <c r="E27" s="3" t="s">
+      <c r="E27" s="35" t="s">
         <v>79</v>
       </c>
-      <c r="F27" s="4" t="s">
+      <c r="F27" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="G27" s="30" t="s">
+      <c r="G27" s="25" t="s">
         <v>106</v>
       </c>
-      <c r="H27" s="2">
+      <c r="H27" s="34">
         <v>0.96199999999999997</v>
       </c>
-      <c r="I27" s="3" t="s">
+      <c r="I27" s="35" t="s">
         <v>107</v>
       </c>
       <c r="J27" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="A28" s="4"/>
-      <c r="B28" s="3"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="33" t="s">
+    <row r="28" spans="1:11" ht="60">
+      <c r="A28" s="36"/>
+      <c r="B28" s="35"/>
+      <c r="C28" s="36"/>
+      <c r="D28" s="36"/>
+      <c r="E28" s="35"/>
+      <c r="F28" s="36"/>
+      <c r="G28" s="28" t="s">
         <v>109</v>
       </c>
-      <c r="H28" s="2"/>
-      <c r="I28" s="3"/>
-    </row>
-    <row r="29" spans="1:11" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="4" t="s">
+      <c r="H28" s="34"/>
+      <c r="I28" s="35"/>
+    </row>
+    <row r="29" spans="1:11" ht="90" customHeight="1">
+      <c r="A29" s="36" t="s">
         <v>110</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B29" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="C29" s="36" t="s">
         <v>104</v>
       </c>
-      <c r="D29" s="23" t="s">
+      <c r="D29" s="18" t="s">
         <v>111</v>
       </c>
-      <c r="E29" s="4" t="s">
+      <c r="E29" s="36" t="s">
         <v>79</v>
       </c>
-      <c r="F29" s="3" t="s">
+      <c r="F29" s="35" t="s">
         <v>112</v>
       </c>
-      <c r="G29" s="30" t="s">
+      <c r="G29" s="25" t="s">
         <v>113</v>
       </c>
-      <c r="H29" s="2">
+      <c r="H29" s="34">
         <v>0.9718</v>
       </c>
-      <c r="I29" s="3" t="s">
+      <c r="I29" s="35" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="180" x14ac:dyDescent="0.25">
-      <c r="A30" s="4"/>
-      <c r="B30" s="3"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="32" t="s">
+    <row r="30" spans="1:11" ht="180">
+      <c r="A30" s="36"/>
+      <c r="B30" s="35"/>
+      <c r="C30" s="36"/>
+      <c r="D30" s="27" t="s">
         <v>84</v>
       </c>
-      <c r="E30" s="4"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="33" t="s">
+      <c r="E30" s="36"/>
+      <c r="F30" s="35"/>
+      <c r="G30" s="28" t="s">
         <v>115</v>
       </c>
-      <c r="H30" s="2"/>
-      <c r="I30" s="3"/>
-    </row>
-    <row r="31" spans="1:11" ht="157.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="4" t="s">
+      <c r="H30" s="34"/>
+      <c r="I30" s="35"/>
+    </row>
+    <row r="31" spans="1:11" ht="157.5" customHeight="1">
+      <c r="A31" s="36" t="s">
         <v>116</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B31" s="35" t="s">
         <v>117</v>
       </c>
-      <c r="C31" s="4" t="s">
+      <c r="C31" s="36" t="s">
         <v>118</v>
       </c>
-      <c r="D31" s="4" t="s">
+      <c r="D31" s="36" t="s">
         <v>96</v>
       </c>
-      <c r="E31" s="4" t="s">
+      <c r="E31" s="36" t="s">
         <v>119</v>
       </c>
-      <c r="F31" s="3" t="s">
+      <c r="F31" s="35" t="s">
         <v>120</v>
       </c>
-      <c r="G31" s="1" t="s">
+      <c r="G31" s="37" t="s">
         <v>121</v>
       </c>
-      <c r="H31" s="25" t="s">
+      <c r="H31" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="I31" s="3" t="s">
+      <c r="I31" s="35" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="4"/>
-      <c r="B32" s="3"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="3"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="27" t="s">
+    <row r="32" spans="1:11">
+      <c r="A32" s="36"/>
+      <c r="B32" s="35"/>
+      <c r="C32" s="36"/>
+      <c r="D32" s="36"/>
+      <c r="E32" s="36"/>
+      <c r="F32" s="35"/>
+      <c r="G32" s="37"/>
+      <c r="H32" s="22" t="s">
         <v>124</v>
       </c>
-      <c r="I32" s="3"/>
+      <c r="I32" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="37">
+    <mergeCell ref="A15:I15"/>
+    <mergeCell ref="A16:A23"/>
+    <mergeCell ref="B16:B23"/>
+    <mergeCell ref="C16:C23"/>
+    <mergeCell ref="E16:E23"/>
+    <mergeCell ref="F16:F23"/>
+    <mergeCell ref="I16:I23"/>
+    <mergeCell ref="I24:I25"/>
+    <mergeCell ref="A26:I26"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="I27:I28"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="H24:H25"/>
     <mergeCell ref="H29:H30"/>
     <mergeCell ref="I29:I30"/>
     <mergeCell ref="A31:A32"/>
@@ -2413,28 +2435,6 @@
     <mergeCell ref="C29:C30"/>
     <mergeCell ref="E29:E30"/>
     <mergeCell ref="F29:F30"/>
-    <mergeCell ref="I24:I25"/>
-    <mergeCell ref="A26:I26"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="H27:H28"/>
-    <mergeCell ref="I27:I28"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="H24:H25"/>
-    <mergeCell ref="A15:I15"/>
-    <mergeCell ref="A16:A23"/>
-    <mergeCell ref="B16:B23"/>
-    <mergeCell ref="C16:C23"/>
-    <mergeCell ref="E16:E23"/>
-    <mergeCell ref="F16:F23"/>
-    <mergeCell ref="I16:I23"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B4" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
@@ -2453,11 +2453,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="C3:I8"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15"/>
   <cols>
     <col min="3" max="3" width="29.5703125" customWidth="1"/>
     <col min="4" max="5" width="11.7109375" customWidth="1"/>
@@ -2466,131 +2466,131 @@
     <col min="9" max="9" width="45.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C3" s="7" t="s">
+    <row r="3" spans="3:9">
+      <c r="C3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="I3" s="3" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="4" spans="3:9" ht="105" x14ac:dyDescent="0.25">
-      <c r="C4" s="8" t="s">
+    <row r="4" spans="3:9" ht="105">
+      <c r="C4" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="11"/>
-      <c r="E4" s="12" t="s">
+      <c r="D4" s="7"/>
+      <c r="E4" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="F4" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="G4" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="H4" s="8" t="s">
+      <c r="H4" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="I4" s="8" t="s">
+      <c r="I4" s="4" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="5" spans="3:9" ht="105" x14ac:dyDescent="0.25">
-      <c r="C5" s="8" t="s">
+    <row r="5" spans="3:9" ht="105">
+      <c r="C5" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="E5" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="F5" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="G5" s="8" t="s">
+      <c r="G5" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="H5" s="8" t="s">
+      <c r="H5" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="I5" s="34" t="s">
+      <c r="I5" s="29" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="6" spans="3:9" ht="120" x14ac:dyDescent="0.25">
-      <c r="C6" s="13" t="s">
+    <row r="6" spans="3:9" ht="120">
+      <c r="C6" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="D6" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="E6" s="11" t="s">
+      <c r="E6" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="F6" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="G6" s="8" t="s">
+      <c r="G6" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="H6" s="8" t="s">
+      <c r="H6" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="I6" s="34" t="s">
+      <c r="I6" s="29" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="7" spans="3:9" ht="90" x14ac:dyDescent="0.25">
-      <c r="C7" s="13" t="s">
+    <row r="7" spans="3:9" ht="90">
+      <c r="C7" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="D7" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="E7" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="F7" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="G7" s="8" t="s">
+      <c r="G7" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="H7" s="8" t="s">
+      <c r="H7" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="I7" s="34" t="s">
+      <c r="I7" s="29" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="8" spans="3:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="C8" s="13" t="s">
+    <row r="8" spans="3:9" ht="45">
+      <c r="C8" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11" t="s">
+      <c r="D8" s="7"/>
+      <c r="E8" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="F8" s="8" t="s">
+      <c r="F8" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="G8" s="8" t="s">
+      <c r="G8" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="H8" s="8" t="s">
+      <c r="H8" s="4" t="s">
         <v>128</v>
       </c>
     </row>
@@ -2612,11 +2612,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="C4:M25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E6" sqref="E6:E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15"/>
   <cols>
     <col min="3" max="3" width="15.5703125" customWidth="1"/>
     <col min="4" max="4" width="27.85546875" customWidth="1"/>
@@ -2628,373 +2628,367 @@
     <col min="10" max="10" width="20.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C4" s="20" t="s">
+    <row r="4" spans="3:13">
+      <c r="C4" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D4" s="21" t="s">
+      <c r="D4" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="E4" s="21" t="s">
+      <c r="E4" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="F4" s="21" t="s">
+      <c r="F4" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="G4" s="21" t="s">
+      <c r="G4" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="H4" s="21" t="s">
+      <c r="H4" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="I4" s="21" t="s">
+      <c r="I4" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="J4" s="22" t="s">
+      <c r="J4" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="K4" s="22" t="s">
+      <c r="K4" s="17" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="5" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C5" s="5" t="s">
+    <row r="5" spans="3:13">
+      <c r="C5" s="38" t="s">
         <v>75</v>
       </c>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-    </row>
-    <row r="6" spans="3:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C6" s="3" t="s">
+      <c r="D5" s="38"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="38"/>
+      <c r="H5" s="38"/>
+      <c r="I5" s="38"/>
+      <c r="J5" s="38"/>
+      <c r="K5" s="38"/>
+    </row>
+    <row r="6" spans="3:13" ht="15" customHeight="1">
+      <c r="C6" s="35" t="s">
         <v>76</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="35" t="s">
         <v>77</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="35" t="s">
         <v>78</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="G6" s="35" t="s">
         <v>79</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="H6" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="I6" s="37" t="s">
         <v>133</v>
       </c>
-      <c r="J6" s="3" t="s">
+      <c r="J6" s="35" t="s">
         <v>134</v>
       </c>
-      <c r="K6" s="3" t="s">
+      <c r="K6" s="35" t="s">
         <v>83</v>
       </c>
-      <c r="M6" s="11"/>
-    </row>
-    <row r="7" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="M7" s="11"/>
-    </row>
-    <row r="8" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="M8" s="11"/>
-    </row>
-    <row r="9" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="M9" s="11"/>
-    </row>
-    <row r="10" spans="3:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="3" t="s">
+      <c r="M6" s="7"/>
+    </row>
+    <row r="7" spans="3:13">
+      <c r="C7" s="35"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="35"/>
+      <c r="F7" s="35"/>
+      <c r="G7" s="35"/>
+      <c r="H7" s="35"/>
+      <c r="I7" s="37"/>
+      <c r="J7" s="35"/>
+      <c r="K7" s="35"/>
+      <c r="M7" s="7"/>
+    </row>
+    <row r="8" spans="3:13">
+      <c r="C8" s="35"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="35"/>
+      <c r="I8" s="37"/>
+      <c r="J8" s="35"/>
+      <c r="K8" s="35"/>
+      <c r="M8" s="7"/>
+    </row>
+    <row r="9" spans="3:13">
+      <c r="C9" s="35"/>
+      <c r="D9" s="35"/>
+      <c r="E9" s="35"/>
+      <c r="F9" s="35"/>
+      <c r="G9" s="35"/>
+      <c r="H9" s="35"/>
+      <c r="I9" s="37"/>
+      <c r="J9" s="35"/>
+      <c r="K9" s="35"/>
+      <c r="M9" s="7"/>
+    </row>
+    <row r="10" spans="3:13" ht="15" customHeight="1">
+      <c r="C10" s="35"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="35"/>
+      <c r="F10" s="35"/>
+      <c r="G10" s="35"/>
+      <c r="H10" s="35"/>
+      <c r="I10" s="37"/>
+      <c r="J10" s="35" t="s">
         <v>135</v>
       </c>
-      <c r="K10" s="3"/>
-    </row>
-    <row r="11" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="M11" s="8"/>
-    </row>
-    <row r="12" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="M12" s="8"/>
-    </row>
-    <row r="13" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="M13" s="8"/>
-    </row>
-    <row r="14" spans="3:13" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C14" s="3" t="s">
+      <c r="K10" s="35"/>
+    </row>
+    <row r="11" spans="3:13">
+      <c r="C11" s="35"/>
+      <c r="D11" s="35"/>
+      <c r="E11" s="35"/>
+      <c r="F11" s="35"/>
+      <c r="G11" s="35"/>
+      <c r="H11" s="35"/>
+      <c r="I11" s="37"/>
+      <c r="J11" s="35"/>
+      <c r="K11" s="35"/>
+      <c r="M11" s="4"/>
+    </row>
+    <row r="12" spans="3:13">
+      <c r="C12" s="35"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="35"/>
+      <c r="F12" s="35"/>
+      <c r="G12" s="35"/>
+      <c r="H12" s="35"/>
+      <c r="I12" s="37"/>
+      <c r="J12" s="35"/>
+      <c r="K12" s="35"/>
+      <c r="M12" s="4"/>
+    </row>
+    <row r="13" spans="3:13">
+      <c r="C13" s="35"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="35"/>
+      <c r="F13" s="35"/>
+      <c r="G13" s="35"/>
+      <c r="H13" s="35"/>
+      <c r="I13" s="37"/>
+      <c r="J13" s="35"/>
+      <c r="K13" s="35"/>
+      <c r="M13" s="4"/>
+    </row>
+    <row r="14" spans="3:13" ht="42.75" customHeight="1">
+      <c r="C14" s="35" t="s">
         <v>103</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="E14" s="35" t="s">
         <v>104</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="F14" s="35" t="s">
         <v>105</v>
       </c>
-      <c r="G14" s="3" t="s">
+      <c r="G14" s="35" t="s">
         <v>79</v>
       </c>
-      <c r="H14" s="3" t="s">
+      <c r="H14" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="I14" s="1" t="s">
+      <c r="I14" s="37" t="s">
         <v>136</v>
       </c>
-      <c r="J14" s="2">
+      <c r="J14" s="34">
         <v>0.96199999999999997</v>
       </c>
-      <c r="K14" s="3" t="s">
+      <c r="K14" s="35" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="15" spans="3:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="3"/>
-    </row>
-    <row r="16" spans="3:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C16" s="3" t="s">
+    <row r="15" spans="3:13" ht="30" customHeight="1">
+      <c r="C15" s="35"/>
+      <c r="D15" s="35"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="35"/>
+      <c r="G15" s="35"/>
+      <c r="H15" s="35"/>
+      <c r="I15" s="37"/>
+      <c r="J15" s="34"/>
+      <c r="K15" s="35"/>
+    </row>
+    <row r="16" spans="3:13" ht="28.5" customHeight="1">
+      <c r="C16" s="35" t="s">
         <v>137</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D16" s="35" t="s">
         <v>94</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="E16" s="35" t="s">
         <v>138</v>
       </c>
-      <c r="F16" s="3" t="s">
+      <c r="F16" s="35" t="s">
         <v>96</v>
       </c>
-      <c r="G16" s="3" t="s">
+      <c r="G16" s="35" t="s">
         <v>79</v>
       </c>
-      <c r="H16" s="4" t="s">
+      <c r="H16" s="36" t="s">
         <v>97</v>
       </c>
-      <c r="I16" s="1" t="s">
+      <c r="I16" s="37" t="s">
         <v>139</v>
       </c>
-      <c r="J16" s="2">
+      <c r="J16" s="34">
         <v>0.98299999999999998</v>
       </c>
-      <c r="K16" s="3" t="s">
+      <c r="K16" s="35" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="3"/>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C18" s="5" t="s">
+    <row r="17" spans="3:11">
+      <c r="C17" s="35"/>
+      <c r="D17" s="35"/>
+      <c r="E17" s="35"/>
+      <c r="F17" s="35"/>
+      <c r="G17" s="35"/>
+      <c r="H17" s="36"/>
+      <c r="I17" s="37"/>
+      <c r="J17" s="34"/>
+      <c r="K17" s="35"/>
+    </row>
+    <row r="18" spans="3:11">
+      <c r="C18" s="38" t="s">
         <v>102</v>
       </c>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
-      <c r="K18" s="5"/>
-    </row>
-    <row r="19" spans="3:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C19" s="4" t="s">
+      <c r="D18" s="38"/>
+      <c r="E18" s="38"/>
+      <c r="F18" s="38"/>
+      <c r="G18" s="38"/>
+      <c r="H18" s="38"/>
+      <c r="I18" s="38"/>
+      <c r="J18" s="38"/>
+      <c r="K18" s="38"/>
+    </row>
+    <row r="19" spans="3:11" ht="28.5" customHeight="1">
+      <c r="C19" s="36" t="s">
         <v>110</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="D19" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="E19" s="3" t="s">
+      <c r="E19" s="35" t="s">
         <v>104</v>
       </c>
-      <c r="F19" s="3" t="s">
+      <c r="F19" s="35" t="s">
         <v>140</v>
       </c>
-      <c r="G19" s="3" t="s">
+      <c r="G19" s="35" t="s">
         <v>79</v>
       </c>
-      <c r="H19" s="3" t="s">
+      <c r="H19" s="35" t="s">
         <v>112</v>
       </c>
-      <c r="I19" s="1" t="s">
+      <c r="I19" s="37" t="s">
         <v>141</v>
       </c>
-      <c r="J19" s="2">
+      <c r="J19" s="34">
         <v>0.9718</v>
       </c>
-      <c r="K19" s="3" t="s">
+      <c r="K19" s="35" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="20" spans="3:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C20" s="4"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="2"/>
-      <c r="K20" s="3"/>
-    </row>
-    <row r="21" spans="3:11" ht="63" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C21" s="4" t="s">
+    <row r="20" spans="3:11" ht="25.5" customHeight="1">
+      <c r="C20" s="36"/>
+      <c r="D20" s="35"/>
+      <c r="E20" s="35"/>
+      <c r="F20" s="35"/>
+      <c r="G20" s="35"/>
+      <c r="H20" s="35"/>
+      <c r="I20" s="37"/>
+      <c r="J20" s="34"/>
+      <c r="K20" s="35"/>
+    </row>
+    <row r="21" spans="3:11" ht="63" customHeight="1">
+      <c r="C21" s="36" t="s">
         <v>116</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="D21" s="35" t="s">
         <v>117</v>
       </c>
-      <c r="E21" s="3" t="s">
+      <c r="E21" s="35" t="s">
         <v>118</v>
       </c>
-      <c r="F21" s="3" t="s">
+      <c r="F21" s="35" t="s">
         <v>96</v>
       </c>
-      <c r="G21" s="3" t="s">
+      <c r="G21" s="35" t="s">
         <v>119</v>
       </c>
-      <c r="H21" s="3" t="s">
+      <c r="H21" s="35" t="s">
         <v>120</v>
       </c>
-      <c r="I21" s="1" t="s">
+      <c r="I21" s="37" t="s">
         <v>142</v>
       </c>
-      <c r="J21" s="3" t="s">
+      <c r="J21" s="35" t="s">
         <v>143</v>
       </c>
-      <c r="K21" s="3" t="s">
+      <c r="K21" s="35" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="22" spans="3:11" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C22" s="4"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="3"/>
-      <c r="K22" s="3"/>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C23" s="35"/>
-      <c r="D23" s="36"/>
-      <c r="E23" s="36"/>
-      <c r="F23" s="36"/>
-      <c r="G23" s="36"/>
-      <c r="H23" s="36"/>
-      <c r="I23" s="36"/>
-      <c r="J23" s="36"/>
-      <c r="K23" s="37"/>
-    </row>
-    <row r="25" spans="3:11" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="C25" s="38" t="s">
+    <row r="22" spans="3:11" ht="15" hidden="1" customHeight="1">
+      <c r="C22" s="36"/>
+      <c r="D22" s="35"/>
+      <c r="E22" s="35"/>
+      <c r="F22" s="35"/>
+      <c r="G22" s="35"/>
+      <c r="H22" s="35"/>
+      <c r="I22" s="37"/>
+      <c r="J22" s="35"/>
+      <c r="K22" s="35"/>
+    </row>
+    <row r="23" spans="3:11">
+      <c r="C23" s="30"/>
+      <c r="D23" s="31"/>
+      <c r="E23" s="31"/>
+      <c r="F23" s="31"/>
+      <c r="G23" s="31"/>
+      <c r="H23" s="31"/>
+      <c r="I23" s="31"/>
+      <c r="J23" s="31"/>
+      <c r="K23" s="32"/>
+    </row>
+    <row r="25" spans="3:11" ht="17.25">
+      <c r="C25" s="33" t="s">
         <v>144</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="H21:H22"/>
-    <mergeCell ref="I21:I22"/>
-    <mergeCell ref="J21:J22"/>
-    <mergeCell ref="K21:K22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="C18:K18"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="J19:J20"/>
-    <mergeCell ref="K19:K20"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="C5:K5"/>
+    <mergeCell ref="C6:C13"/>
+    <mergeCell ref="D6:D13"/>
+    <mergeCell ref="E6:E13"/>
+    <mergeCell ref="F6:F13"/>
+    <mergeCell ref="G6:G13"/>
+    <mergeCell ref="H6:H13"/>
+    <mergeCell ref="I6:I13"/>
+    <mergeCell ref="J6:J9"/>
+    <mergeCell ref="K6:K13"/>
+    <mergeCell ref="J10:J13"/>
     <mergeCell ref="H14:H15"/>
     <mergeCell ref="I14:I15"/>
     <mergeCell ref="J14:J15"/>
@@ -3011,19 +3005,25 @@
     <mergeCell ref="C14:C15"/>
     <mergeCell ref="D14:D15"/>
     <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="C5:K5"/>
-    <mergeCell ref="C6:C13"/>
-    <mergeCell ref="D6:D13"/>
-    <mergeCell ref="E6:E13"/>
-    <mergeCell ref="F6:F13"/>
-    <mergeCell ref="G6:G13"/>
-    <mergeCell ref="H6:H13"/>
-    <mergeCell ref="I6:I13"/>
-    <mergeCell ref="J6:J9"/>
-    <mergeCell ref="K6:K13"/>
-    <mergeCell ref="J10:J13"/>
+    <mergeCell ref="C18:K18"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="J19:J20"/>
+    <mergeCell ref="K19:K20"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="J21:J22"/>
+    <mergeCell ref="K21:K22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="G21:G22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/runs.xlsx
+++ b/runs.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Karyna\Desktop\Github\Project_final\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22745EC5-3B61-4519-A17B-1C59D9A295EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C510463-20C7-479C-92B4-F91312230C4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-225" windowWidth="29040" windowHeight="15720" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-225" windowWidth="29040" windowHeight="15720" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="predictions" sheetId="1" r:id="rId1"/>
     <sheet name="tools" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet2" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet3" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_Hlk131454908" localSheetId="1">tools!$A$14</definedName>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="169">
   <si>
     <t>Acinetobacter phage</t>
   </si>
@@ -950,6 +951,87 @@
   </si>
   <si>
     <t>funciona, mas usando anaconda. Requer algumas configurações. Demora cerca de 15min cada corrida para todas as ferramentas do phabox. O output é bastante completo, (ver o diagrama da ferramenta) inclui proteinas significativas e blasts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nome, Ano </t>
+  </si>
+  <si>
+    <t>Funções</t>
+  </si>
+  <si>
+    <t>DNA</t>
+  </si>
+  <si>
+    <t>Protein</t>
+  </si>
+  <si>
+    <r>
+      <t>self-supervised training:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 3474 phages, 142434 phage contigs;</t>
+    </r>
+  </si>
+  <si>
+    <t>Input sequencia</t>
+  </si>
+  <si>
+    <t>Base de dados</t>
+  </si>
+  <si>
+    <t>Taxa de precisão</t>
+  </si>
+  <si>
+    <t>classificaçãodo ciclo de vida do genoma completo</t>
+  </si>
+  <si>
+    <t>classificaçãodo ciclo de vida de contigs ou genoma completo</t>
+  </si>
+  <si>
+    <t>classificaçãodo ciclo de vida dos domínios proteicos conservados do genoma completo</t>
+  </si>
+  <si>
+    <t>classificaçãodo ciclo de vida da sequência proteica</t>
+  </si>
+  <si>
+    <t>Baseado em homologia</t>
+  </si>
+  <si>
+    <t>Baseado em Machine learning</t>
+  </si>
+  <si>
+    <t>Tempo execução/genoma</t>
+  </si>
+  <si>
+    <t>classificador</t>
+  </si>
+  <si>
+    <t>informação adicional</t>
+  </si>
+  <si>
+    <t>Genomas/corrida</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>precisao</t>
+  </si>
+  <si>
+    <t>sd</t>
+  </si>
+  <si>
+    <t>confiança</t>
+  </si>
+  <si>
+    <t>1-precisao</t>
   </si>
 </sst>
 </file>
@@ -959,7 +1041,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mmm"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1033,6 +1115,15 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="18"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1042,7 +1133,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -1161,12 +1252,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1259,20 +1365,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1663,7 +1781,7 @@
       <selection activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="32" customWidth="1"/>
     <col min="2" max="3" width="11.7109375" customWidth="1"/>
@@ -1672,12 +1790,12 @@
     <col min="6" max="6" width="25.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>1</v>
       </c>
@@ -1697,7 +1815,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="45">
+    <row r="6" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>7</v>
       </c>
@@ -1717,7 +1835,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
       <c r="B7" s="5"/>
       <c r="C7" s="6"/>
@@ -1739,11 +1857,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:M32"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.7109375" customWidth="1"/>
     <col min="2" max="2" width="8.85546875" customWidth="1"/>
@@ -1759,7 +1877,7 @@
     <col min="13" max="13" width="12.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>14</v>
       </c>
@@ -1794,7 +1912,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="135">
+    <row r="3" spans="1:13" ht="135" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>25</v>
       </c>
@@ -1825,7 +1943,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="135">
+    <row r="4" spans="1:13" ht="135" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>33</v>
       </c>
@@ -1864,7 +1982,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:13" s="12" customFormat="1" ht="120">
+    <row r="5" spans="1:13" s="12" customFormat="1" ht="120" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>42</v>
       </c>
@@ -1895,7 +2013,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:13" s="12" customFormat="1" ht="120">
+    <row r="6" spans="1:13" s="12" customFormat="1" ht="120" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>50</v>
       </c>
@@ -1928,7 +2046,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="7" spans="1:13" s="12" customFormat="1" ht="60">
+    <row r="7" spans="1:13" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>60</v>
       </c>
@@ -1953,7 +2071,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
@@ -1966,7 +2084,7 @@
       <c r="J9" s="14"/>
       <c r="K9" s="14"/>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
@@ -1981,7 +2099,7 @@
       <c r="J10" s="14"/>
       <c r="K10" s="14"/>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
@@ -1994,7 +2112,7 @@
       <c r="J11" s="14"/>
       <c r="K11" s="14"/>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
@@ -2009,7 +2127,7 @@
       <c r="J12" s="14"/>
       <c r="K12" s="14"/>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="15"/>
       <c r="B13" s="15"/>
       <c r="C13" s="15"/>
@@ -2022,7 +2140,7 @@
       <c r="J13" s="14"/>
       <c r="K13" s="14"/>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>66</v>
       </c>
@@ -2053,38 +2171,38 @@
       <c r="J14" s="14"/>
       <c r="K14" s="14"/>
     </row>
-    <row r="15" spans="1:13">
-      <c r="A15" s="38" t="s">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="34" t="s">
         <v>75</v>
       </c>
-      <c r="B15" s="38"/>
-      <c r="C15" s="38"/>
-      <c r="D15" s="38"/>
-      <c r="E15" s="38"/>
-      <c r="F15" s="38"/>
-      <c r="G15" s="38"/>
-      <c r="H15" s="38"/>
-      <c r="I15" s="38"/>
+      <c r="B15" s="34"/>
+      <c r="C15" s="34"/>
+      <c r="D15" s="34"/>
+      <c r="E15" s="34"/>
+      <c r="F15" s="34"/>
+      <c r="G15" s="34"/>
+      <c r="H15" s="34"/>
+      <c r="I15" s="34"/>
       <c r="J15" s="14"/>
       <c r="K15" s="14"/>
     </row>
-    <row r="16" spans="1:13" ht="30" customHeight="1">
-      <c r="A16" s="36" t="s">
+    <row r="16" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="35" t="s">
         <v>76</v>
       </c>
-      <c r="B16" s="35" t="s">
+      <c r="B16" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="C16" s="36" t="s">
+      <c r="C16" s="35" t="s">
         <v>77</v>
       </c>
       <c r="D16" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="E16" s="35" t="s">
+      <c r="E16" s="36" t="s">
         <v>79</v>
       </c>
-      <c r="F16" s="35" t="s">
+      <c r="F16" s="36" t="s">
         <v>80</v>
       </c>
       <c r="G16" s="19" t="s">
@@ -2093,318 +2211,326 @@
       <c r="H16" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="I16" s="35" t="s">
+      <c r="I16" s="36" t="s">
         <v>83</v>
       </c>
       <c r="J16" s="14"/>
       <c r="K16" s="14"/>
     </row>
-    <row r="17" spans="1:11">
-      <c r="A17" s="36"/>
-      <c r="B17" s="35"/>
-      <c r="C17" s="36"/>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="35"/>
+      <c r="B17" s="36"/>
+      <c r="C17" s="35"/>
       <c r="D17" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="E17" s="35"/>
-      <c r="F17" s="35"/>
+      <c r="E17" s="36"/>
+      <c r="F17" s="36"/>
       <c r="G17" s="19" t="s">
         <v>85</v>
       </c>
       <c r="H17" s="20" t="s">
         <v>86</v>
       </c>
-      <c r="I17" s="35"/>
+      <c r="I17" s="36"/>
       <c r="J17" s="14"/>
       <c r="K17" s="14"/>
     </row>
-    <row r="18" spans="1:11">
-      <c r="A18" s="36"/>
-      <c r="B18" s="35"/>
-      <c r="C18" s="36"/>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="35"/>
+      <c r="B18" s="36"/>
+      <c r="C18" s="35"/>
       <c r="D18" s="21"/>
-      <c r="E18" s="35"/>
-      <c r="F18" s="35"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="36"/>
       <c r="G18" s="19" t="s">
         <v>87</v>
       </c>
       <c r="H18" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="I18" s="35"/>
+      <c r="I18" s="36"/>
       <c r="J18" s="14"/>
       <c r="K18" s="14"/>
     </row>
-    <row r="19" spans="1:11">
-      <c r="A19" s="36"/>
-      <c r="B19" s="35"/>
-      <c r="C19" s="36"/>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="35"/>
+      <c r="B19" s="36"/>
+      <c r="C19" s="35"/>
       <c r="D19" s="21"/>
-      <c r="E19" s="35"/>
-      <c r="F19" s="35"/>
+      <c r="E19" s="36"/>
+      <c r="F19" s="36"/>
       <c r="G19" s="21"/>
       <c r="H19" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="I19" s="35"/>
+      <c r="I19" s="36"/>
       <c r="J19" s="15"/>
       <c r="K19" s="15"/>
     </row>
-    <row r="20" spans="1:11" ht="30">
-      <c r="A20" s="36"/>
-      <c r="B20" s="35"/>
-      <c r="C20" s="36"/>
+    <row r="20" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="35"/>
+      <c r="B20" s="36"/>
+      <c r="C20" s="35"/>
       <c r="D20" s="21"/>
-      <c r="E20" s="35"/>
-      <c r="F20" s="35"/>
+      <c r="E20" s="36"/>
+      <c r="F20" s="36"/>
       <c r="G20" s="21"/>
       <c r="H20" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="I20" s="35"/>
+      <c r="I20" s="36"/>
       <c r="J20" s="15"/>
       <c r="K20" s="15"/>
     </row>
-    <row r="21" spans="1:11">
-      <c r="A21" s="36"/>
-      <c r="B21" s="35"/>
-      <c r="C21" s="36"/>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="35"/>
+      <c r="B21" s="36"/>
+      <c r="C21" s="35"/>
       <c r="D21" s="21"/>
-      <c r="E21" s="35"/>
-      <c r="F21" s="35"/>
+      <c r="E21" s="36"/>
+      <c r="F21" s="36"/>
       <c r="G21" s="21"/>
       <c r="H21" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="I21" s="35"/>
+      <c r="I21" s="36"/>
       <c r="J21" s="15"/>
       <c r="K21" s="15"/>
     </row>
-    <row r="22" spans="1:11">
-      <c r="A22" s="36"/>
-      <c r="B22" s="35"/>
-      <c r="C22" s="36"/>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="35"/>
+      <c r="B22" s="36"/>
+      <c r="C22" s="35"/>
       <c r="D22" s="21"/>
-      <c r="E22" s="35"/>
-      <c r="F22" s="35"/>
+      <c r="E22" s="36"/>
+      <c r="F22" s="36"/>
       <c r="G22" s="21"/>
       <c r="H22" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="I22" s="35"/>
-    </row>
-    <row r="23" spans="1:11">
-      <c r="A23" s="36"/>
-      <c r="B23" s="35"/>
-      <c r="C23" s="36"/>
+      <c r="I22" s="36"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="35"/>
+      <c r="B23" s="36"/>
+      <c r="C23" s="35"/>
       <c r="D23" s="23"/>
-      <c r="E23" s="35"/>
-      <c r="F23" s="35"/>
+      <c r="E23" s="36"/>
+      <c r="F23" s="36"/>
       <c r="G23" s="23"/>
       <c r="H23" s="22" t="s">
         <v>92</v>
       </c>
-      <c r="I23" s="35"/>
-    </row>
-    <row r="24" spans="1:11" ht="105" customHeight="1">
+      <c r="I23" s="36"/>
+    </row>
+    <row r="24" spans="1:11" ht="105" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="24" t="s">
         <v>93</v>
       </c>
-      <c r="B24" s="35" t="s">
+      <c r="B24" s="36" t="s">
         <v>94</v>
       </c>
       <c r="C24" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="D24" s="36" t="s">
+      <c r="D24" s="35" t="s">
         <v>96</v>
       </c>
-      <c r="E24" s="35" t="s">
+      <c r="E24" s="36" t="s">
         <v>79</v>
       </c>
-      <c r="F24" s="36" t="s">
+      <c r="F24" s="35" t="s">
         <v>97</v>
       </c>
       <c r="G24" s="25" t="s">
         <v>98</v>
       </c>
-      <c r="H24" s="34">
+      <c r="H24" s="37">
         <v>0.98299999999999998</v>
       </c>
-      <c r="I24" s="35" t="s">
+      <c r="I24" s="36" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="105">
+    <row r="25" spans="1:11" ht="105" x14ac:dyDescent="0.25">
       <c r="A25" s="26">
         <v>2021</v>
       </c>
-      <c r="B25" s="35"/>
+      <c r="B25" s="36"/>
       <c r="C25" s="27" t="s">
         <v>100</v>
       </c>
-      <c r="D25" s="36"/>
-      <c r="E25" s="35"/>
-      <c r="F25" s="36"/>
+      <c r="D25" s="35"/>
+      <c r="E25" s="36"/>
+      <c r="F25" s="35"/>
       <c r="G25" s="28" t="s">
         <v>101</v>
       </c>
-      <c r="H25" s="34"/>
-      <c r="I25" s="35"/>
-    </row>
-    <row r="26" spans="1:11">
-      <c r="A26" s="38" t="s">
+      <c r="H25" s="37"/>
+      <c r="I25" s="36"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="34" t="s">
         <v>102</v>
       </c>
-      <c r="B26" s="38"/>
-      <c r="C26" s="38"/>
-      <c r="D26" s="38"/>
-      <c r="E26" s="38"/>
-      <c r="F26" s="38"/>
-      <c r="G26" s="38"/>
-      <c r="H26" s="38"/>
-      <c r="I26" s="38"/>
-    </row>
-    <row r="27" spans="1:11" ht="165" customHeight="1">
-      <c r="A27" s="36" t="s">
+      <c r="B26" s="34"/>
+      <c r="C26" s="34"/>
+      <c r="D26" s="34"/>
+      <c r="E26" s="34"/>
+      <c r="F26" s="34"/>
+      <c r="G26" s="34"/>
+      <c r="H26" s="34"/>
+      <c r="I26" s="34"/>
+    </row>
+    <row r="27" spans="1:11" ht="165" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="35" t="s">
         <v>103</v>
       </c>
-      <c r="B27" s="35" t="s">
+      <c r="B27" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="C27" s="36" t="s">
+      <c r="C27" s="35" t="s">
         <v>104</v>
       </c>
-      <c r="D27" s="36" t="s">
+      <c r="D27" s="35" t="s">
         <v>105</v>
       </c>
-      <c r="E27" s="35" t="s">
+      <c r="E27" s="36" t="s">
         <v>79</v>
       </c>
-      <c r="F27" s="36" t="s">
+      <c r="F27" s="35" t="s">
         <v>47</v>
       </c>
       <c r="G27" s="25" t="s">
         <v>106</v>
       </c>
-      <c r="H27" s="34">
+      <c r="H27" s="37">
         <v>0.96199999999999997</v>
       </c>
-      <c r="I27" s="35" t="s">
+      <c r="I27" s="36" t="s">
         <v>107</v>
       </c>
       <c r="J27" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="60">
-      <c r="A28" s="36"/>
-      <c r="B28" s="35"/>
-      <c r="C28" s="36"/>
-      <c r="D28" s="36"/>
-      <c r="E28" s="35"/>
-      <c r="F28" s="36"/>
+    <row r="28" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A28" s="35"/>
+      <c r="B28" s="36"/>
+      <c r="C28" s="35"/>
+      <c r="D28" s="35"/>
+      <c r="E28" s="36"/>
+      <c r="F28" s="35"/>
       <c r="G28" s="28" t="s">
         <v>109</v>
       </c>
-      <c r="H28" s="34"/>
-      <c r="I28" s="35"/>
-    </row>
-    <row r="29" spans="1:11" ht="90" customHeight="1">
-      <c r="A29" s="36" t="s">
+      <c r="H28" s="37"/>
+      <c r="I28" s="36"/>
+    </row>
+    <row r="29" spans="1:11" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="35" t="s">
         <v>110</v>
       </c>
-      <c r="B29" s="35" t="s">
+      <c r="B29" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="C29" s="36" t="s">
+      <c r="C29" s="35" t="s">
         <v>104</v>
       </c>
       <c r="D29" s="18" t="s">
         <v>111</v>
       </c>
-      <c r="E29" s="36" t="s">
+      <c r="E29" s="35" t="s">
         <v>79</v>
       </c>
-      <c r="F29" s="35" t="s">
+      <c r="F29" s="36" t="s">
         <v>112</v>
       </c>
       <c r="G29" s="25" t="s">
         <v>113</v>
       </c>
-      <c r="H29" s="34">
+      <c r="H29" s="37">
         <v>0.9718</v>
       </c>
-      <c r="I29" s="35" t="s">
+      <c r="I29" s="36" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="180">
-      <c r="A30" s="36"/>
-      <c r="B30" s="35"/>
-      <c r="C30" s="36"/>
+    <row r="30" spans="1:11" ht="180" x14ac:dyDescent="0.25">
+      <c r="A30" s="35"/>
+      <c r="B30" s="36"/>
+      <c r="C30" s="35"/>
       <c r="D30" s="27" t="s">
         <v>84</v>
       </c>
-      <c r="E30" s="36"/>
-      <c r="F30" s="35"/>
+      <c r="E30" s="35"/>
+      <c r="F30" s="36"/>
       <c r="G30" s="28" t="s">
         <v>115</v>
       </c>
-      <c r="H30" s="34"/>
-      <c r="I30" s="35"/>
-    </row>
-    <row r="31" spans="1:11" ht="157.5" customHeight="1">
-      <c r="A31" s="36" t="s">
+      <c r="H30" s="37"/>
+      <c r="I30" s="36"/>
+    </row>
+    <row r="31" spans="1:11" ht="157.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="35" t="s">
         <v>116</v>
       </c>
-      <c r="B31" s="35" t="s">
+      <c r="B31" s="36" t="s">
         <v>117</v>
       </c>
-      <c r="C31" s="36" t="s">
+      <c r="C31" s="35" t="s">
         <v>118</v>
       </c>
-      <c r="D31" s="36" t="s">
+      <c r="D31" s="35" t="s">
         <v>96</v>
       </c>
-      <c r="E31" s="36" t="s">
+      <c r="E31" s="35" t="s">
         <v>119</v>
       </c>
-      <c r="F31" s="35" t="s">
+      <c r="F31" s="36" t="s">
         <v>120</v>
       </c>
-      <c r="G31" s="37" t="s">
+      <c r="G31" s="38" t="s">
         <v>121</v>
       </c>
       <c r="H31" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="I31" s="35" t="s">
+      <c r="I31" s="36" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="32" spans="1:11">
-      <c r="A32" s="36"/>
-      <c r="B32" s="35"/>
-      <c r="C32" s="36"/>
-      <c r="D32" s="36"/>
-      <c r="E32" s="36"/>
-      <c r="F32" s="35"/>
-      <c r="G32" s="37"/>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" s="35"/>
+      <c r="B32" s="36"/>
+      <c r="C32" s="35"/>
+      <c r="D32" s="35"/>
+      <c r="E32" s="35"/>
+      <c r="F32" s="36"/>
+      <c r="G32" s="38"/>
       <c r="H32" s="22" t="s">
         <v>124</v>
       </c>
-      <c r="I32" s="35"/>
+      <c r="I32" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="A15:I15"/>
-    <mergeCell ref="A16:A23"/>
-    <mergeCell ref="B16:B23"/>
-    <mergeCell ref="C16:C23"/>
-    <mergeCell ref="E16:E23"/>
-    <mergeCell ref="F16:F23"/>
-    <mergeCell ref="I16:I23"/>
+    <mergeCell ref="H29:H30"/>
+    <mergeCell ref="I29:I30"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="I31:I32"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="F29:F30"/>
     <mergeCell ref="I24:I25"/>
     <mergeCell ref="A26:I26"/>
     <mergeCell ref="A27:A28"/>
@@ -2420,21 +2546,13 @@
     <mergeCell ref="E24:E25"/>
     <mergeCell ref="F24:F25"/>
     <mergeCell ref="H24:H25"/>
-    <mergeCell ref="H29:H30"/>
-    <mergeCell ref="I29:I30"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="I31:I32"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="A15:I15"/>
+    <mergeCell ref="A16:A23"/>
+    <mergeCell ref="B16:B23"/>
+    <mergeCell ref="C16:C23"/>
+    <mergeCell ref="E16:E23"/>
+    <mergeCell ref="F16:F23"/>
+    <mergeCell ref="I16:I23"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B4" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
@@ -2453,11 +2571,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="C3:I8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="29.5703125" customWidth="1"/>
     <col min="4" max="5" width="11.7109375" customWidth="1"/>
@@ -2466,7 +2584,7 @@
     <col min="9" max="9" width="45.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:9">
+    <row r="3" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C3" s="3" t="s">
         <v>14</v>
       </c>
@@ -2486,7 +2604,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="4" spans="3:9" ht="105">
+    <row r="4" spans="3:9" ht="105" x14ac:dyDescent="0.25">
       <c r="C4" s="4" t="s">
         <v>25</v>
       </c>
@@ -2507,7 +2625,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="5" spans="3:9" ht="105">
+    <row r="5" spans="3:9" ht="105" x14ac:dyDescent="0.25">
       <c r="C5" s="4" t="s">
         <v>33</v>
       </c>
@@ -2530,7 +2648,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="6" spans="3:9" ht="120">
+    <row r="6" spans="3:9" ht="120" x14ac:dyDescent="0.25">
       <c r="C6" s="9" t="s">
         <v>42</v>
       </c>
@@ -2553,7 +2671,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="7" spans="3:9" ht="90">
+    <row r="7" spans="3:9" ht="90" x14ac:dyDescent="0.25">
       <c r="C7" s="9" t="s">
         <v>50</v>
       </c>
@@ -2576,7 +2694,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="8" spans="3:9" ht="45">
+    <row r="8" spans="3:9" ht="45" x14ac:dyDescent="0.25">
       <c r="C8" s="9" t="s">
         <v>60</v>
       </c>
@@ -2613,10 +2731,10 @@
   <dimension ref="C4:M25"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6:E13"/>
+      <selection activeCell="H19" sqref="H19:H20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="15.5703125" customWidth="1"/>
     <col min="4" max="4" width="27.85546875" customWidth="1"/>
@@ -2628,7 +2746,7 @@
     <col min="10" max="10" width="20.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:13">
+    <row r="4" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C4" s="1" t="s">
         <v>66</v>
       </c>
@@ -2657,308 +2775,308 @@
         <v>74</v>
       </c>
     </row>
-    <row r="5" spans="3:13">
-      <c r="C5" s="38" t="s">
+    <row r="5" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C5" s="34" t="s">
         <v>75</v>
       </c>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="38"/>
-      <c r="H5" s="38"/>
-      <c r="I5" s="38"/>
-      <c r="J5" s="38"/>
-      <c r="K5" s="38"/>
-    </row>
-    <row r="6" spans="3:13" ht="15" customHeight="1">
-      <c r="C6" s="35" t="s">
+      <c r="D5" s="34"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="34"/>
+      <c r="I5" s="34"/>
+      <c r="J5" s="34"/>
+      <c r="K5" s="34"/>
+    </row>
+    <row r="6" spans="3:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C6" s="36" t="s">
         <v>76</v>
       </c>
-      <c r="D6" s="35" t="s">
+      <c r="D6" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="E6" s="35" t="s">
+      <c r="E6" s="36" t="s">
         <v>77</v>
       </c>
-      <c r="F6" s="35" t="s">
+      <c r="F6" s="36" t="s">
         <v>78</v>
       </c>
-      <c r="G6" s="35" t="s">
+      <c r="G6" s="36" t="s">
         <v>79</v>
       </c>
-      <c r="H6" s="35" t="s">
+      <c r="H6" s="36" t="s">
         <v>80</v>
       </c>
-      <c r="I6" s="37" t="s">
+      <c r="I6" s="38" t="s">
         <v>133</v>
       </c>
-      <c r="J6" s="35" t="s">
+      <c r="J6" s="36" t="s">
         <v>134</v>
       </c>
-      <c r="K6" s="35" t="s">
+      <c r="K6" s="36" t="s">
         <v>83</v>
       </c>
       <c r="M6" s="7"/>
     </row>
-    <row r="7" spans="3:13">
-      <c r="C7" s="35"/>
-      <c r="D7" s="35"/>
-      <c r="E7" s="35"/>
-      <c r="F7" s="35"/>
-      <c r="G7" s="35"/>
-      <c r="H7" s="35"/>
-      <c r="I7" s="37"/>
-      <c r="J7" s="35"/>
-      <c r="K7" s="35"/>
+    <row r="7" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C7" s="36"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="36"/>
+      <c r="G7" s="36"/>
+      <c r="H7" s="36"/>
+      <c r="I7" s="38"/>
+      <c r="J7" s="36"/>
+      <c r="K7" s="36"/>
       <c r="M7" s="7"/>
     </row>
-    <row r="8" spans="3:13">
-      <c r="C8" s="35"/>
-      <c r="D8" s="35"/>
-      <c r="E8" s="35"/>
-      <c r="F8" s="35"/>
-      <c r="G8" s="35"/>
-      <c r="H8" s="35"/>
-      <c r="I8" s="37"/>
-      <c r="J8" s="35"/>
-      <c r="K8" s="35"/>
+    <row r="8" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C8" s="36"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="36"/>
+      <c r="H8" s="36"/>
+      <c r="I8" s="38"/>
+      <c r="J8" s="36"/>
+      <c r="K8" s="36"/>
       <c r="M8" s="7"/>
     </row>
-    <row r="9" spans="3:13">
-      <c r="C9" s="35"/>
-      <c r="D9" s="35"/>
-      <c r="E9" s="35"/>
-      <c r="F9" s="35"/>
-      <c r="G9" s="35"/>
-      <c r="H9" s="35"/>
-      <c r="I9" s="37"/>
-      <c r="J9" s="35"/>
-      <c r="K9" s="35"/>
+    <row r="9" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C9" s="36"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="36"/>
+      <c r="G9" s="36"/>
+      <c r="H9" s="36"/>
+      <c r="I9" s="38"/>
+      <c r="J9" s="36"/>
+      <c r="K9" s="36"/>
       <c r="M9" s="7"/>
     </row>
-    <row r="10" spans="3:13" ht="15" customHeight="1">
-      <c r="C10" s="35"/>
-      <c r="D10" s="35"/>
-      <c r="E10" s="35"/>
-      <c r="F10" s="35"/>
-      <c r="G10" s="35"/>
-      <c r="H10" s="35"/>
-      <c r="I10" s="37"/>
-      <c r="J10" s="35" t="s">
+    <row r="10" spans="3:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C10" s="36"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="36"/>
+      <c r="G10" s="36"/>
+      <c r="H10" s="36"/>
+      <c r="I10" s="38"/>
+      <c r="J10" s="36" t="s">
         <v>135</v>
       </c>
-      <c r="K10" s="35"/>
-    </row>
-    <row r="11" spans="3:13">
-      <c r="C11" s="35"/>
-      <c r="D11" s="35"/>
-      <c r="E11" s="35"/>
-      <c r="F11" s="35"/>
-      <c r="G11" s="35"/>
-      <c r="H11" s="35"/>
-      <c r="I11" s="37"/>
-      <c r="J11" s="35"/>
-      <c r="K11" s="35"/>
+      <c r="K10" s="36"/>
+    </row>
+    <row r="11" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C11" s="36"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="36"/>
+      <c r="G11" s="36"/>
+      <c r="H11" s="36"/>
+      <c r="I11" s="38"/>
+      <c r="J11" s="36"/>
+      <c r="K11" s="36"/>
       <c r="M11" s="4"/>
     </row>
-    <row r="12" spans="3:13">
-      <c r="C12" s="35"/>
-      <c r="D12" s="35"/>
-      <c r="E12" s="35"/>
-      <c r="F12" s="35"/>
-      <c r="G12" s="35"/>
-      <c r="H12" s="35"/>
-      <c r="I12" s="37"/>
-      <c r="J12" s="35"/>
-      <c r="K12" s="35"/>
+    <row r="12" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C12" s="36"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="36"/>
+      <c r="G12" s="36"/>
+      <c r="H12" s="36"/>
+      <c r="I12" s="38"/>
+      <c r="J12" s="36"/>
+      <c r="K12" s="36"/>
       <c r="M12" s="4"/>
     </row>
-    <row r="13" spans="3:13">
-      <c r="C13" s="35"/>
-      <c r="D13" s="35"/>
-      <c r="E13" s="35"/>
-      <c r="F13" s="35"/>
-      <c r="G13" s="35"/>
-      <c r="H13" s="35"/>
-      <c r="I13" s="37"/>
-      <c r="J13" s="35"/>
-      <c r="K13" s="35"/>
+    <row r="13" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C13" s="36"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="36"/>
+      <c r="F13" s="36"/>
+      <c r="G13" s="36"/>
+      <c r="H13" s="36"/>
+      <c r="I13" s="38"/>
+      <c r="J13" s="36"/>
+      <c r="K13" s="36"/>
       <c r="M13" s="4"/>
     </row>
-    <row r="14" spans="3:13" ht="42.75" customHeight="1">
-      <c r="C14" s="35" t="s">
+    <row r="14" spans="3:13" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C14" s="36" t="s">
         <v>103</v>
       </c>
-      <c r="D14" s="35" t="s">
+      <c r="D14" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="E14" s="35" t="s">
+      <c r="E14" s="36" t="s">
         <v>104</v>
       </c>
-      <c r="F14" s="35" t="s">
+      <c r="F14" s="36" t="s">
         <v>105</v>
       </c>
-      <c r="G14" s="35" t="s">
+      <c r="G14" s="36" t="s">
         <v>79</v>
       </c>
-      <c r="H14" s="35" t="s">
+      <c r="H14" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="I14" s="37" t="s">
+      <c r="I14" s="38" t="s">
         <v>136</v>
       </c>
-      <c r="J14" s="34">
+      <c r="J14" s="37">
         <v>0.96199999999999997</v>
       </c>
-      <c r="K14" s="35" t="s">
+      <c r="K14" s="36" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="15" spans="3:13" ht="30" customHeight="1">
-      <c r="C15" s="35"/>
-      <c r="D15" s="35"/>
-      <c r="E15" s="35"/>
-      <c r="F15" s="35"/>
-      <c r="G15" s="35"/>
-      <c r="H15" s="35"/>
-      <c r="I15" s="37"/>
-      <c r="J15" s="34"/>
-      <c r="K15" s="35"/>
-    </row>
-    <row r="16" spans="3:13" ht="28.5" customHeight="1">
-      <c r="C16" s="35" t="s">
+    <row r="15" spans="3:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C15" s="36"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="36"/>
+      <c r="G15" s="36"/>
+      <c r="H15" s="36"/>
+      <c r="I15" s="38"/>
+      <c r="J15" s="37"/>
+      <c r="K15" s="36"/>
+    </row>
+    <row r="16" spans="3:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C16" s="36" t="s">
         <v>137</v>
       </c>
-      <c r="D16" s="35" t="s">
+      <c r="D16" s="36" t="s">
         <v>94</v>
       </c>
-      <c r="E16" s="35" t="s">
+      <c r="E16" s="36" t="s">
         <v>138</v>
       </c>
-      <c r="F16" s="35" t="s">
+      <c r="F16" s="36" t="s">
         <v>96</v>
       </c>
-      <c r="G16" s="35" t="s">
+      <c r="G16" s="36" t="s">
         <v>79</v>
       </c>
-      <c r="H16" s="36" t="s">
+      <c r="H16" s="35" t="s">
         <v>97</v>
       </c>
-      <c r="I16" s="37" t="s">
+      <c r="I16" s="38" t="s">
         <v>139</v>
       </c>
-      <c r="J16" s="34">
+      <c r="J16" s="37">
         <v>0.98299999999999998</v>
       </c>
-      <c r="K16" s="35" t="s">
+      <c r="K16" s="36" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="17" spans="3:11">
-      <c r="C17" s="35"/>
-      <c r="D17" s="35"/>
-      <c r="E17" s="35"/>
-      <c r="F17" s="35"/>
-      <c r="G17" s="35"/>
-      <c r="H17" s="36"/>
-      <c r="I17" s="37"/>
-      <c r="J17" s="34"/>
-      <c r="K17" s="35"/>
-    </row>
-    <row r="18" spans="3:11">
-      <c r="C18" s="38" t="s">
+    <row r="17" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C17" s="36"/>
+      <c r="D17" s="36"/>
+      <c r="E17" s="36"/>
+      <c r="F17" s="36"/>
+      <c r="G17" s="36"/>
+      <c r="H17" s="35"/>
+      <c r="I17" s="38"/>
+      <c r="J17" s="37"/>
+      <c r="K17" s="36"/>
+    </row>
+    <row r="18" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C18" s="34" t="s">
         <v>102</v>
       </c>
-      <c r="D18" s="38"/>
-      <c r="E18" s="38"/>
-      <c r="F18" s="38"/>
-      <c r="G18" s="38"/>
-      <c r="H18" s="38"/>
-      <c r="I18" s="38"/>
-      <c r="J18" s="38"/>
-      <c r="K18" s="38"/>
-    </row>
-    <row r="19" spans="3:11" ht="28.5" customHeight="1">
-      <c r="C19" s="36" t="s">
+      <c r="D18" s="34"/>
+      <c r="E18" s="34"/>
+      <c r="F18" s="34"/>
+      <c r="G18" s="34"/>
+      <c r="H18" s="34"/>
+      <c r="I18" s="34"/>
+      <c r="J18" s="34"/>
+      <c r="K18" s="34"/>
+    </row>
+    <row r="19" spans="3:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C19" s="35" t="s">
         <v>110</v>
       </c>
-      <c r="D19" s="35" t="s">
+      <c r="D19" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="E19" s="35" t="s">
+      <c r="E19" s="36" t="s">
         <v>104</v>
       </c>
-      <c r="F19" s="35" t="s">
+      <c r="F19" s="36" t="s">
         <v>140</v>
       </c>
-      <c r="G19" s="35" t="s">
+      <c r="G19" s="36" t="s">
         <v>79</v>
       </c>
-      <c r="H19" s="35" t="s">
+      <c r="H19" s="36" t="s">
         <v>112</v>
       </c>
-      <c r="I19" s="37" t="s">
+      <c r="I19" s="38" t="s">
         <v>141</v>
       </c>
-      <c r="J19" s="34">
+      <c r="J19" s="37">
         <v>0.9718</v>
       </c>
-      <c r="K19" s="35" t="s">
+      <c r="K19" s="36" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="20" spans="3:11" ht="25.5" customHeight="1">
-      <c r="C20" s="36"/>
-      <c r="D20" s="35"/>
-      <c r="E20" s="35"/>
-      <c r="F20" s="35"/>
-      <c r="G20" s="35"/>
-      <c r="H20" s="35"/>
-      <c r="I20" s="37"/>
-      <c r="J20" s="34"/>
-      <c r="K20" s="35"/>
-    </row>
-    <row r="21" spans="3:11" ht="63" customHeight="1">
-      <c r="C21" s="36" t="s">
+    <row r="20" spans="3:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C20" s="35"/>
+      <c r="D20" s="36"/>
+      <c r="E20" s="36"/>
+      <c r="F20" s="36"/>
+      <c r="G20" s="36"/>
+      <c r="H20" s="36"/>
+      <c r="I20" s="38"/>
+      <c r="J20" s="37"/>
+      <c r="K20" s="36"/>
+    </row>
+    <row r="21" spans="3:11" ht="63" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C21" s="35" t="s">
         <v>116</v>
       </c>
-      <c r="D21" s="35" t="s">
+      <c r="D21" s="36" t="s">
         <v>117</v>
       </c>
-      <c r="E21" s="35" t="s">
+      <c r="E21" s="36" t="s">
         <v>118</v>
       </c>
-      <c r="F21" s="35" t="s">
+      <c r="F21" s="36" t="s">
         <v>96</v>
       </c>
-      <c r="G21" s="35" t="s">
+      <c r="G21" s="36" t="s">
         <v>119</v>
       </c>
-      <c r="H21" s="35" t="s">
+      <c r="H21" s="36" t="s">
         <v>120</v>
       </c>
-      <c r="I21" s="37" t="s">
+      <c r="I21" s="38" t="s">
         <v>142</v>
       </c>
-      <c r="J21" s="35" t="s">
+      <c r="J21" s="36" t="s">
         <v>143</v>
       </c>
-      <c r="K21" s="35" t="s">
+      <c r="K21" s="36" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="22" spans="3:11" ht="15" hidden="1" customHeight="1">
-      <c r="C22" s="36"/>
-      <c r="D22" s="35"/>
-      <c r="E22" s="35"/>
-      <c r="F22" s="35"/>
-      <c r="G22" s="35"/>
-      <c r="H22" s="35"/>
-      <c r="I22" s="37"/>
-      <c r="J22" s="35"/>
-      <c r="K22" s="35"/>
-    </row>
-    <row r="23" spans="3:11">
+    <row r="22" spans="3:11" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C22" s="35"/>
+      <c r="D22" s="36"/>
+      <c r="E22" s="36"/>
+      <c r="F22" s="36"/>
+      <c r="G22" s="36"/>
+      <c r="H22" s="36"/>
+      <c r="I22" s="38"/>
+      <c r="J22" s="36"/>
+      <c r="K22" s="36"/>
+    </row>
+    <row r="23" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C23" s="30"/>
       <c r="D23" s="31"/>
       <c r="E23" s="31"/>
@@ -2969,13 +3087,45 @@
       <c r="J23" s="31"/>
       <c r="K23" s="32"/>
     </row>
-    <row r="25" spans="3:11" ht="17.25">
+    <row r="25" spans="3:11" ht="17.25" x14ac:dyDescent="0.25">
       <c r="C25" s="33" t="s">
         <v>144</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="48">
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="J21:J22"/>
+    <mergeCell ref="K21:K22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="C18:K18"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="J19:J20"/>
+    <mergeCell ref="K19:K20"/>
+    <mergeCell ref="K14:K15"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="J16:J17"/>
+    <mergeCell ref="K16:K17"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:E15"/>
     <mergeCell ref="F14:F15"/>
     <mergeCell ref="G14:G15"/>
     <mergeCell ref="C5:K5"/>
@@ -2992,40 +3142,561 @@
     <mergeCell ref="H14:H15"/>
     <mergeCell ref="I14:I15"/>
     <mergeCell ref="J14:J15"/>
-    <mergeCell ref="K14:K15"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="I16:I17"/>
-    <mergeCell ref="J16:J17"/>
-    <mergeCell ref="K16:K17"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="C18:K18"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="J19:J20"/>
-    <mergeCell ref="K19:K20"/>
-    <mergeCell ref="H21:H22"/>
-    <mergeCell ref="I21:I22"/>
-    <mergeCell ref="J21:J22"/>
-    <mergeCell ref="K21:K22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="G21:G22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7177393-CE06-4BCE-A621-C1673F8D170C}">
+  <dimension ref="F4:L45"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="H43" sqref="H43"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="6" max="6" width="20" customWidth="1"/>
+    <col min="7" max="7" width="28.5703125" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" customWidth="1"/>
+    <col min="9" max="9" width="15.5703125" customWidth="1"/>
+    <col min="10" max="10" width="20.28515625" customWidth="1"/>
+    <col min="11" max="11" width="37.140625" customWidth="1"/>
+    <col min="12" max="12" width="17.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="6:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="6:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F5" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="G5" s="16" t="s">
+        <v>147</v>
+      </c>
+      <c r="H5" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="I5" s="16" t="s">
+        <v>151</v>
+      </c>
+      <c r="J5" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="K5" s="16" t="s">
+        <v>152</v>
+      </c>
+      <c r="L5" s="17" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="6" spans="6:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F6" s="34" t="s">
+        <v>158</v>
+      </c>
+      <c r="G6" s="34"/>
+      <c r="H6" s="34"/>
+      <c r="I6" s="34"/>
+      <c r="J6" s="34"/>
+      <c r="K6" s="34"/>
+      <c r="L6" s="34"/>
+    </row>
+    <row r="7" spans="6:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F7" s="36" t="s">
+        <v>76</v>
+      </c>
+      <c r="G7" s="36" t="s">
+        <v>155</v>
+      </c>
+      <c r="H7" s="36" t="s">
+        <v>104</v>
+      </c>
+      <c r="I7" s="36" t="s">
+        <v>148</v>
+      </c>
+      <c r="J7" s="36" t="s">
+        <v>80</v>
+      </c>
+      <c r="K7" s="38" t="s">
+        <v>150</v>
+      </c>
+      <c r="L7" s="39">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="8" spans="6:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F8" s="36"/>
+      <c r="G8" s="36"/>
+      <c r="H8" s="36"/>
+      <c r="I8" s="36"/>
+      <c r="J8" s="36"/>
+      <c r="K8" s="38"/>
+      <c r="L8" s="36"/>
+    </row>
+    <row r="9" spans="6:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F9" s="36"/>
+      <c r="G9" s="36"/>
+      <c r="H9" s="36"/>
+      <c r="I9" s="36"/>
+      <c r="J9" s="36"/>
+      <c r="K9" s="38"/>
+      <c r="L9" s="36"/>
+    </row>
+    <row r="10" spans="6:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F10" s="36"/>
+      <c r="G10" s="36"/>
+      <c r="H10" s="36"/>
+      <c r="I10" s="36"/>
+      <c r="J10" s="36"/>
+      <c r="K10" s="38"/>
+      <c r="L10" s="36"/>
+    </row>
+    <row r="11" spans="6:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F11" s="36"/>
+      <c r="G11" s="36"/>
+      <c r="H11" s="36"/>
+      <c r="I11" s="36"/>
+      <c r="J11" s="36"/>
+      <c r="K11" s="38"/>
+      <c r="L11" s="39">
+        <v>0.94</v>
+      </c>
+    </row>
+    <row r="12" spans="6:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F12" s="36"/>
+      <c r="G12" s="36"/>
+      <c r="H12" s="36"/>
+      <c r="I12" s="36"/>
+      <c r="J12" s="36"/>
+      <c r="K12" s="38"/>
+      <c r="L12" s="36"/>
+    </row>
+    <row r="13" spans="6:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F13" s="36"/>
+      <c r="G13" s="36"/>
+      <c r="H13" s="36"/>
+      <c r="I13" s="36"/>
+      <c r="J13" s="36"/>
+      <c r="K13" s="38"/>
+      <c r="L13" s="36"/>
+    </row>
+    <row r="14" spans="6:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F14" s="36"/>
+      <c r="G14" s="36"/>
+      <c r="H14" s="36"/>
+      <c r="I14" s="36"/>
+      <c r="J14" s="36"/>
+      <c r="K14" s="38"/>
+      <c r="L14" s="36"/>
+    </row>
+    <row r="15" spans="6:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F15" s="36" t="s">
+        <v>103</v>
+      </c>
+      <c r="G15" s="36" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15" s="36" t="s">
+        <v>104</v>
+      </c>
+      <c r="I15" s="36" t="s">
+        <v>148</v>
+      </c>
+      <c r="J15" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="K15" s="38" t="s">
+        <v>136</v>
+      </c>
+      <c r="L15" s="37">
+        <v>0.96199999999999997</v>
+      </c>
+    </row>
+    <row r="16" spans="6:12" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F16" s="36"/>
+      <c r="G16" s="36"/>
+      <c r="H16" s="36"/>
+      <c r="I16" s="36"/>
+      <c r="J16" s="36"/>
+      <c r="K16" s="38"/>
+      <c r="L16" s="37"/>
+    </row>
+    <row r="17" spans="6:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F17" s="36" t="s">
+        <v>137</v>
+      </c>
+      <c r="G17" s="36" t="s">
+        <v>156</v>
+      </c>
+      <c r="H17" s="36" t="s">
+        <v>118</v>
+      </c>
+      <c r="I17" s="36" t="s">
+        <v>148</v>
+      </c>
+      <c r="J17" s="35" t="s">
+        <v>97</v>
+      </c>
+      <c r="K17" s="38" t="s">
+        <v>139</v>
+      </c>
+      <c r="L17" s="37">
+        <v>0.98299999999999998</v>
+      </c>
+    </row>
+    <row r="18" spans="6:12" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F18" s="36"/>
+      <c r="G18" s="36"/>
+      <c r="H18" s="36"/>
+      <c r="I18" s="36"/>
+      <c r="J18" s="35"/>
+      <c r="K18" s="38"/>
+      <c r="L18" s="37"/>
+    </row>
+    <row r="19" spans="6:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F19" s="34" t="s">
+        <v>159</v>
+      </c>
+      <c r="G19" s="34"/>
+      <c r="H19" s="34"/>
+      <c r="I19" s="34"/>
+      <c r="J19" s="34"/>
+      <c r="K19" s="34"/>
+      <c r="L19" s="34"/>
+    </row>
+    <row r="20" spans="6:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F20" s="35" t="s">
+        <v>110</v>
+      </c>
+      <c r="G20" s="36" t="s">
+        <v>154</v>
+      </c>
+      <c r="H20" s="36" t="s">
+        <v>104</v>
+      </c>
+      <c r="I20" s="36" t="s">
+        <v>148</v>
+      </c>
+      <c r="J20" s="36" t="s">
+        <v>112</v>
+      </c>
+      <c r="K20" s="38" t="s">
+        <v>141</v>
+      </c>
+      <c r="L20" s="37">
+        <v>0.9718</v>
+      </c>
+    </row>
+    <row r="21" spans="6:12" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F21" s="35"/>
+      <c r="G21" s="36"/>
+      <c r="H21" s="36"/>
+      <c r="I21" s="36"/>
+      <c r="J21" s="36"/>
+      <c r="K21" s="38"/>
+      <c r="L21" s="37"/>
+    </row>
+    <row r="22" spans="6:12" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F22" s="35" t="s">
+        <v>116</v>
+      </c>
+      <c r="G22" s="36" t="s">
+        <v>157</v>
+      </c>
+      <c r="H22" s="36" t="s">
+        <v>118</v>
+      </c>
+      <c r="I22" s="36" t="s">
+        <v>149</v>
+      </c>
+      <c r="J22" s="36" t="s">
+        <v>120</v>
+      </c>
+      <c r="K22" s="38" t="s">
+        <v>142</v>
+      </c>
+      <c r="L22" s="39">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="23" spans="6:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F23" s="35"/>
+      <c r="G23" s="36"/>
+      <c r="H23" s="36"/>
+      <c r="I23" s="36"/>
+      <c r="J23" s="36"/>
+      <c r="K23" s="38"/>
+      <c r="L23" s="36"/>
+    </row>
+    <row r="24" spans="6:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F24" s="30"/>
+      <c r="G24" s="31"/>
+      <c r="H24" s="31"/>
+      <c r="I24" s="31"/>
+      <c r="J24" s="31"/>
+      <c r="K24" s="31"/>
+      <c r="L24" s="31"/>
+    </row>
+    <row r="29" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="G29" t="s">
+        <v>163</v>
+      </c>
+      <c r="H29" t="s">
+        <v>160</v>
+      </c>
+      <c r="I29" t="s">
+        <v>21</v>
+      </c>
+      <c r="J29" t="s">
+        <v>161</v>
+      </c>
+      <c r="K29" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="30" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F30" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F31" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="32" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F32" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="33" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F33" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="36" spans="6:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F36" t="s">
+        <v>168</v>
+      </c>
+      <c r="G36" t="s">
+        <v>165</v>
+      </c>
+      <c r="H36" t="s">
+        <v>166</v>
+      </c>
+      <c r="I36" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="37" spans="6:10" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F37">
+        <f>1-G37</f>
+        <v>0.47399999999999998</v>
+      </c>
+      <c r="G37" s="40">
+        <v>0.52600000000000002</v>
+      </c>
+      <c r="H37" s="40">
+        <v>3.8399999999999997E-2</v>
+      </c>
+      <c r="I37" s="41">
+        <f>G37-F37</f>
+        <v>5.2000000000000046E-2</v>
+      </c>
+      <c r="J37">
+        <f>H37*2</f>
+        <v>7.6799999999999993E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="6:10" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F38">
+        <f t="shared" ref="F38:F45" si="0">1-G38</f>
+        <v>0.48799999999999999</v>
+      </c>
+      <c r="G38" s="40">
+        <v>0.51200000000000001</v>
+      </c>
+      <c r="H38" s="40">
+        <v>3.6700000000000003E-2</v>
+      </c>
+      <c r="I38" s="41">
+        <f t="shared" ref="I38:I45" si="1">G38-F38</f>
+        <v>2.4000000000000021E-2</v>
+      </c>
+      <c r="J38">
+        <f t="shared" ref="J38:J45" si="2">H38*2</f>
+        <v>7.3400000000000007E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="6:10" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F39">
+        <f t="shared" si="0"/>
+        <v>0.47899999999999998</v>
+      </c>
+      <c r="G39" s="40">
+        <v>0.52100000000000002</v>
+      </c>
+      <c r="H39" s="40">
+        <v>3.3099999999999997E-2</v>
+      </c>
+      <c r="I39" s="41">
+        <f t="shared" si="1"/>
+        <v>4.2000000000000037E-2</v>
+      </c>
+      <c r="J39">
+        <f t="shared" si="2"/>
+        <v>6.6199999999999995E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="6:10" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F40" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G40" s="40" t="s">
+        <v>164</v>
+      </c>
+      <c r="H40" s="41"/>
+      <c r="I40" s="41" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J40">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="6:10" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F41">
+        <f t="shared" si="0"/>
+        <v>0.46899999999999997</v>
+      </c>
+      <c r="G41" s="40">
+        <v>0.53100000000000003</v>
+      </c>
+      <c r="H41" s="40">
+        <v>3.5900000000000001E-2</v>
+      </c>
+      <c r="I41" s="41">
+        <f t="shared" si="1"/>
+        <v>6.2000000000000055E-2</v>
+      </c>
+      <c r="J41">
+        <f t="shared" si="2"/>
+        <v>7.1800000000000003E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="6:10" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F42">
+        <f t="shared" si="0"/>
+        <v>0.38300000000000001</v>
+      </c>
+      <c r="G42" s="42">
+        <v>0.61699999999999999</v>
+      </c>
+      <c r="H42" s="42">
+        <v>0.109</v>
+      </c>
+      <c r="I42" s="41">
+        <f t="shared" si="1"/>
+        <v>0.23399999999999999</v>
+      </c>
+      <c r="J42">
+        <f t="shared" si="2"/>
+        <v>0.218</v>
+      </c>
+    </row>
+    <row r="43" spans="6:10" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F43">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G43" s="42"/>
+      <c r="H43" s="42"/>
+      <c r="I43" s="41">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="J43">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="6:10" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F44">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G44" s="42"/>
+      <c r="H44" s="42"/>
+      <c r="I44" s="41">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="J44">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="6:10" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F45">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G45" s="42"/>
+      <c r="H45" s="42"/>
+      <c r="I45" s="41">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="J45">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="38">
+    <mergeCell ref="K22:K23"/>
+    <mergeCell ref="L22:L23"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="J22:J23"/>
+    <mergeCell ref="F19:L19"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="I20:I21"/>
+    <mergeCell ref="J20:J21"/>
+    <mergeCell ref="K20:K21"/>
+    <mergeCell ref="L20:L21"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="J17:J18"/>
+    <mergeCell ref="K17:K18"/>
+    <mergeCell ref="L17:L18"/>
+    <mergeCell ref="L11:L14"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="K15:K16"/>
+    <mergeCell ref="L15:L16"/>
+    <mergeCell ref="F6:L6"/>
+    <mergeCell ref="F7:F14"/>
+    <mergeCell ref="G7:G14"/>
+    <mergeCell ref="H7:H14"/>
+    <mergeCell ref="I7:I14"/>
+    <mergeCell ref="J7:J14"/>
+    <mergeCell ref="K7:K14"/>
+    <mergeCell ref="L7:L10"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="300" r:id="rId1"/>
+</worksheet>
 </file>
--- a/runs.xlsx
+++ b/runs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Karyna\Desktop\Github\Project_final\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C510463-20C7-479C-92B4-F91312230C4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1B47D25-0FA1-484D-8B4F-94AB765C33A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-225" windowWidth="29040" windowHeight="15720" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="predictions" sheetId="1" r:id="rId1"/>
@@ -927,15 +927,91 @@
     <t>Precision: 99% Sensitivity: 88%</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
+    <t>funciona, mas usando anaconda. Requer algumas configurações. Demora cerca de 15min cada corrida para todas as ferramentas do phabox. O output é bastante completo, (ver o diagrama da ferramenta) inclui proteinas significativas e blasts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nome, Ano </t>
+  </si>
+  <si>
+    <t>Funções</t>
+  </si>
+  <si>
+    <t>DNA</t>
+  </si>
+  <si>
+    <t>Protein</t>
+  </si>
+  <si>
+    <r>
+      <t>self-supervised training:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 3474 phages, 142434 phage contigs;</t>
+    </r>
+  </si>
+  <si>
+    <t>Input sequencia</t>
+  </si>
+  <si>
+    <t>Base de dados</t>
+  </si>
+  <si>
+    <t>Taxa de precisão</t>
+  </si>
+  <si>
+    <t>classificaçãodo ciclo de vida do genoma completo</t>
+  </si>
+  <si>
+    <t>classificaçãodo ciclo de vida de contigs ou genoma completo</t>
+  </si>
+  <si>
+    <t>classificaçãodo ciclo de vida dos domínios proteicos conservados do genoma completo</t>
+  </si>
+  <si>
+    <t>classificaçãodo ciclo de vida da sequência proteica</t>
+  </si>
+  <si>
+    <t>Baseado em homologia</t>
+  </si>
+  <si>
+    <t>Baseado em Machine learning</t>
+  </si>
+  <si>
+    <t>Tempo execução/genoma</t>
+  </si>
+  <si>
+    <t>classificador</t>
+  </si>
+  <si>
+    <t>informação adicional</t>
+  </si>
+  <si>
+    <t>Genomas/corrida</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>precisao</t>
+  </si>
+  <si>
+    <t>sd</t>
+  </si>
+  <si>
+    <t>confiança</t>
+  </si>
+  <si>
+    <t>1-precisao</t>
+  </si>
+  <si>
+    <r>
       <t>*</t>
     </r>
     <r>
@@ -948,90 +1024,6 @@
       </rPr>
       <t>GFF3 file format includes: prophage region and boundaries, quality score, genomic features (type of molecule)</t>
     </r>
-  </si>
-  <si>
-    <t>funciona, mas usando anaconda. Requer algumas configurações. Demora cerca de 15min cada corrida para todas as ferramentas do phabox. O output é bastante completo, (ver o diagrama da ferramenta) inclui proteinas significativas e blasts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nome, Ano </t>
-  </si>
-  <si>
-    <t>Funções</t>
-  </si>
-  <si>
-    <t>DNA</t>
-  </si>
-  <si>
-    <t>Protein</t>
-  </si>
-  <si>
-    <r>
-      <t>self-supervised training:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> 3474 phages, 142434 phage contigs;</t>
-    </r>
-  </si>
-  <si>
-    <t>Input sequencia</t>
-  </si>
-  <si>
-    <t>Base de dados</t>
-  </si>
-  <si>
-    <t>Taxa de precisão</t>
-  </si>
-  <si>
-    <t>classificaçãodo ciclo de vida do genoma completo</t>
-  </si>
-  <si>
-    <t>classificaçãodo ciclo de vida de contigs ou genoma completo</t>
-  </si>
-  <si>
-    <t>classificaçãodo ciclo de vida dos domínios proteicos conservados do genoma completo</t>
-  </si>
-  <si>
-    <t>classificaçãodo ciclo de vida da sequência proteica</t>
-  </si>
-  <si>
-    <t>Baseado em homologia</t>
-  </si>
-  <si>
-    <t>Baseado em Machine learning</t>
-  </si>
-  <si>
-    <t>Tempo execução/genoma</t>
-  </si>
-  <si>
-    <t>classificador</t>
-  </si>
-  <si>
-    <t>informação adicional</t>
-  </si>
-  <si>
-    <t>Genomas/corrida</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>precisao</t>
-  </si>
-  <si>
-    <t>sd</t>
-  </si>
-  <si>
-    <t>confiança</t>
-  </si>
-  <si>
-    <t>1-precisao</t>
   </si>
 </sst>
 </file>
@@ -1365,24 +1357,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
@@ -1391,6 +1365,24 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1781,21 +1773,21 @@
       <selection activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="32" customWidth="1"/>
-    <col min="2" max="3" width="11.7109375" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" customWidth="1"/>
-    <col min="5" max="5" width="15.5703125" customWidth="1"/>
-    <col min="6" max="6" width="25.7109375" customWidth="1"/>
+    <col min="2" max="3" width="11.6640625" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" customWidth="1"/>
+    <col min="5" max="5" width="15.5546875" customWidth="1"/>
+    <col min="6" max="6" width="25.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>1</v>
       </c>
@@ -1815,7 +1807,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>7</v>
       </c>
@@ -1835,7 +1827,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="7"/>
       <c r="B7" s="5"/>
       <c r="C7" s="6"/>
@@ -1861,23 +1853,23 @@
       <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.7109375" customWidth="1"/>
-    <col min="2" max="2" width="8.85546875" customWidth="1"/>
-    <col min="3" max="3" width="15.28515625" customWidth="1"/>
-    <col min="4" max="4" width="16.85546875" customWidth="1"/>
-    <col min="6" max="6" width="13.5703125" customWidth="1"/>
-    <col min="7" max="7" width="12.5703125" customWidth="1"/>
+    <col min="1" max="1" width="21.6640625" customWidth="1"/>
+    <col min="2" max="2" width="8.88671875" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" customWidth="1"/>
+    <col min="4" max="4" width="16.88671875" customWidth="1"/>
+    <col min="6" max="6" width="13.5546875" customWidth="1"/>
+    <col min="7" max="7" width="12.5546875" customWidth="1"/>
     <col min="8" max="8" width="15" customWidth="1"/>
-    <col min="9" max="9" width="25.28515625" customWidth="1"/>
-    <col min="10" max="10" width="36.28515625" customWidth="1"/>
-    <col min="11" max="11" width="47.5703125" customWidth="1"/>
-    <col min="12" max="12" width="18.28515625" customWidth="1"/>
-    <col min="13" max="13" width="12.140625" customWidth="1"/>
+    <col min="9" max="9" width="25.33203125" customWidth="1"/>
+    <col min="10" max="10" width="36.33203125" customWidth="1"/>
+    <col min="11" max="11" width="47.5546875" customWidth="1"/>
+    <col min="12" max="12" width="18.33203125" customWidth="1"/>
+    <col min="13" max="13" width="12.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>14</v>
       </c>
@@ -1912,7 +1904,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="135" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>25</v>
       </c>
@@ -1943,7 +1935,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="135" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>33</v>
       </c>
@@ -1982,7 +1974,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:13" s="12" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" s="12" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
         <v>42</v>
       </c>
@@ -2013,7 +2005,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:13" s="12" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" s="12" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
         <v>50</v>
       </c>
@@ -2046,7 +2038,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="7" spans="1:13" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" s="12" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
         <v>60</v>
       </c>
@@ -2071,7 +2063,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="7"/>
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
@@ -2084,7 +2076,7 @@
       <c r="J9" s="14"/>
       <c r="K9" s="14"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="7"/>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
@@ -2099,7 +2091,7 @@
       <c r="J10" s="14"/>
       <c r="K10" s="14"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="7"/>
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
@@ -2112,7 +2104,7 @@
       <c r="J11" s="14"/>
       <c r="K11" s="14"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="7"/>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
@@ -2127,7 +2119,7 @@
       <c r="J12" s="14"/>
       <c r="K12" s="14"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="15"/>
       <c r="B13" s="15"/>
       <c r="C13" s="15"/>
@@ -2140,7 +2132,7 @@
       <c r="J13" s="14"/>
       <c r="K13" s="14"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>66</v>
       </c>
@@ -2171,38 +2163,38 @@
       <c r="J14" s="14"/>
       <c r="K14" s="14"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="34" t="s">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A15" s="41" t="s">
         <v>75</v>
       </c>
-      <c r="B15" s="34"/>
-      <c r="C15" s="34"/>
-      <c r="D15" s="34"/>
-      <c r="E15" s="34"/>
-      <c r="F15" s="34"/>
-      <c r="G15" s="34"/>
-      <c r="H15" s="34"/>
-      <c r="I15" s="34"/>
+      <c r="B15" s="41"/>
+      <c r="C15" s="41"/>
+      <c r="D15" s="41"/>
+      <c r="E15" s="41"/>
+      <c r="F15" s="41"/>
+      <c r="G15" s="41"/>
+      <c r="H15" s="41"/>
+      <c r="I15" s="41"/>
       <c r="J15" s="14"/>
       <c r="K15" s="14"/>
     </row>
-    <row r="16" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="35" t="s">
+    <row r="16" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="39" t="s">
         <v>76</v>
       </c>
-      <c r="B16" s="36" t="s">
+      <c r="B16" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="C16" s="35" t="s">
+      <c r="C16" s="39" t="s">
         <v>77</v>
       </c>
       <c r="D16" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="E16" s="36" t="s">
+      <c r="E16" s="38" t="s">
         <v>79</v>
       </c>
-      <c r="F16" s="36" t="s">
+      <c r="F16" s="38" t="s">
         <v>80</v>
       </c>
       <c r="G16" s="19" t="s">
@@ -2211,136 +2203,136 @@
       <c r="H16" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="I16" s="36" t="s">
+      <c r="I16" s="38" t="s">
         <v>83</v>
       </c>
       <c r="J16" s="14"/>
       <c r="K16" s="14"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="35"/>
-      <c r="B17" s="36"/>
-      <c r="C17" s="35"/>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A17" s="39"/>
+      <c r="B17" s="38"/>
+      <c r="C17" s="39"/>
       <c r="D17" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="E17" s="36"/>
-      <c r="F17" s="36"/>
+      <c r="E17" s="38"/>
+      <c r="F17" s="38"/>
       <c r="G17" s="19" t="s">
         <v>85</v>
       </c>
       <c r="H17" s="20" t="s">
         <v>86</v>
       </c>
-      <c r="I17" s="36"/>
+      <c r="I17" s="38"/>
       <c r="J17" s="14"/>
       <c r="K17" s="14"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="35"/>
-      <c r="B18" s="36"/>
-      <c r="C18" s="35"/>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A18" s="39"/>
+      <c r="B18" s="38"/>
+      <c r="C18" s="39"/>
       <c r="D18" s="21"/>
-      <c r="E18" s="36"/>
-      <c r="F18" s="36"/>
+      <c r="E18" s="38"/>
+      <c r="F18" s="38"/>
       <c r="G18" s="19" t="s">
         <v>87</v>
       </c>
       <c r="H18" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="I18" s="36"/>
+      <c r="I18" s="38"/>
       <c r="J18" s="14"/>
       <c r="K18" s="14"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="35"/>
-      <c r="B19" s="36"/>
-      <c r="C19" s="35"/>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A19" s="39"/>
+      <c r="B19" s="38"/>
+      <c r="C19" s="39"/>
       <c r="D19" s="21"/>
-      <c r="E19" s="36"/>
-      <c r="F19" s="36"/>
+      <c r="E19" s="38"/>
+      <c r="F19" s="38"/>
       <c r="G19" s="21"/>
       <c r="H19" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="I19" s="36"/>
+      <c r="I19" s="38"/>
       <c r="J19" s="15"/>
       <c r="K19" s="15"/>
     </row>
-    <row r="20" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="35"/>
-      <c r="B20" s="36"/>
-      <c r="C20" s="35"/>
+    <row r="20" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A20" s="39"/>
+      <c r="B20" s="38"/>
+      <c r="C20" s="39"/>
       <c r="D20" s="21"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="36"/>
+      <c r="E20" s="38"/>
+      <c r="F20" s="38"/>
       <c r="G20" s="21"/>
       <c r="H20" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="I20" s="36"/>
+      <c r="I20" s="38"/>
       <c r="J20" s="15"/>
       <c r="K20" s="15"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="35"/>
-      <c r="B21" s="36"/>
-      <c r="C21" s="35"/>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A21" s="39"/>
+      <c r="B21" s="38"/>
+      <c r="C21" s="39"/>
       <c r="D21" s="21"/>
-      <c r="E21" s="36"/>
-      <c r="F21" s="36"/>
+      <c r="E21" s="38"/>
+      <c r="F21" s="38"/>
       <c r="G21" s="21"/>
       <c r="H21" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="I21" s="36"/>
+      <c r="I21" s="38"/>
       <c r="J21" s="15"/>
       <c r="K21" s="15"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="35"/>
-      <c r="B22" s="36"/>
-      <c r="C22" s="35"/>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A22" s="39"/>
+      <c r="B22" s="38"/>
+      <c r="C22" s="39"/>
       <c r="D22" s="21"/>
-      <c r="E22" s="36"/>
-      <c r="F22" s="36"/>
+      <c r="E22" s="38"/>
+      <c r="F22" s="38"/>
       <c r="G22" s="21"/>
       <c r="H22" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="I22" s="36"/>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="35"/>
-      <c r="B23" s="36"/>
-      <c r="C23" s="35"/>
+      <c r="I22" s="38"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A23" s="39"/>
+      <c r="B23" s="38"/>
+      <c r="C23" s="39"/>
       <c r="D23" s="23"/>
-      <c r="E23" s="36"/>
-      <c r="F23" s="36"/>
+      <c r="E23" s="38"/>
+      <c r="F23" s="38"/>
       <c r="G23" s="23"/>
       <c r="H23" s="22" t="s">
         <v>92</v>
       </c>
-      <c r="I23" s="36"/>
-    </row>
-    <row r="24" spans="1:11" ht="105" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I23" s="38"/>
+    </row>
+    <row r="24" spans="1:11" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="24" t="s">
         <v>93</v>
       </c>
-      <c r="B24" s="36" t="s">
+      <c r="B24" s="38" t="s">
         <v>94</v>
       </c>
       <c r="C24" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="D24" s="35" t="s">
+      <c r="D24" s="39" t="s">
         <v>96</v>
       </c>
-      <c r="E24" s="36" t="s">
+      <c r="E24" s="38" t="s">
         <v>79</v>
       </c>
-      <c r="F24" s="35" t="s">
+      <c r="F24" s="39" t="s">
         <v>97</v>
       </c>
       <c r="G24" s="25" t="s">
@@ -2349,57 +2341,57 @@
       <c r="H24" s="37">
         <v>0.98299999999999998</v>
       </c>
-      <c r="I24" s="36" t="s">
+      <c r="I24" s="38" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A25" s="26">
         <v>2021</v>
       </c>
-      <c r="B25" s="36"/>
+      <c r="B25" s="38"/>
       <c r="C25" s="27" t="s">
         <v>100</v>
       </c>
-      <c r="D25" s="35"/>
-      <c r="E25" s="36"/>
-      <c r="F25" s="35"/>
+      <c r="D25" s="39"/>
+      <c r="E25" s="38"/>
+      <c r="F25" s="39"/>
       <c r="G25" s="28" t="s">
         <v>101</v>
       </c>
       <c r="H25" s="37"/>
-      <c r="I25" s="36"/>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="34" t="s">
+      <c r="I25" s="38"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A26" s="41" t="s">
         <v>102</v>
       </c>
-      <c r="B26" s="34"/>
-      <c r="C26" s="34"/>
-      <c r="D26" s="34"/>
-      <c r="E26" s="34"/>
-      <c r="F26" s="34"/>
-      <c r="G26" s="34"/>
-      <c r="H26" s="34"/>
-      <c r="I26" s="34"/>
-    </row>
-    <row r="27" spans="1:11" ht="165" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="35" t="s">
+      <c r="B26" s="41"/>
+      <c r="C26" s="41"/>
+      <c r="D26" s="41"/>
+      <c r="E26" s="41"/>
+      <c r="F26" s="41"/>
+      <c r="G26" s="41"/>
+      <c r="H26" s="41"/>
+      <c r="I26" s="41"/>
+    </row>
+    <row r="27" spans="1:11" ht="165" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="39" t="s">
         <v>103</v>
       </c>
-      <c r="B27" s="36" t="s">
+      <c r="B27" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="C27" s="35" t="s">
+      <c r="C27" s="39" t="s">
         <v>104</v>
       </c>
-      <c r="D27" s="35" t="s">
+      <c r="D27" s="39" t="s">
         <v>105</v>
       </c>
-      <c r="E27" s="36" t="s">
+      <c r="E27" s="38" t="s">
         <v>79</v>
       </c>
-      <c r="F27" s="35" t="s">
+      <c r="F27" s="39" t="s">
         <v>47</v>
       </c>
       <c r="G27" s="25" t="s">
@@ -2408,43 +2400,43 @@
       <c r="H27" s="37">
         <v>0.96199999999999997</v>
       </c>
-      <c r="I27" s="36" t="s">
+      <c r="I27" s="38" t="s">
         <v>107</v>
       </c>
       <c r="J27" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="A28" s="35"/>
-      <c r="B28" s="36"/>
-      <c r="C28" s="35"/>
-      <c r="D28" s="35"/>
-      <c r="E28" s="36"/>
-      <c r="F28" s="35"/>
+    <row r="28" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A28" s="39"/>
+      <c r="B28" s="38"/>
+      <c r="C28" s="39"/>
+      <c r="D28" s="39"/>
+      <c r="E28" s="38"/>
+      <c r="F28" s="39"/>
       <c r="G28" s="28" t="s">
         <v>109</v>
       </c>
       <c r="H28" s="37"/>
-      <c r="I28" s="36"/>
-    </row>
-    <row r="29" spans="1:11" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="35" t="s">
+      <c r="I28" s="38"/>
+    </row>
+    <row r="29" spans="1:11" ht="90" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="39" t="s">
         <v>110</v>
       </c>
-      <c r="B29" s="36" t="s">
+      <c r="B29" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="C29" s="35" t="s">
+      <c r="C29" s="39" t="s">
         <v>104</v>
       </c>
       <c r="D29" s="18" t="s">
         <v>111</v>
       </c>
-      <c r="E29" s="35" t="s">
+      <c r="E29" s="39" t="s">
         <v>79</v>
       </c>
-      <c r="F29" s="36" t="s">
+      <c r="F29" s="38" t="s">
         <v>112</v>
       </c>
       <c r="G29" s="25" t="s">
@@ -2453,69 +2445,91 @@
       <c r="H29" s="37">
         <v>0.9718</v>
       </c>
-      <c r="I29" s="36" t="s">
+      <c r="I29" s="38" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="180" x14ac:dyDescent="0.25">
-      <c r="A30" s="35"/>
-      <c r="B30" s="36"/>
-      <c r="C30" s="35"/>
+    <row r="30" spans="1:11" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A30" s="39"/>
+      <c r="B30" s="38"/>
+      <c r="C30" s="39"/>
       <c r="D30" s="27" t="s">
         <v>84</v>
       </c>
-      <c r="E30" s="35"/>
-      <c r="F30" s="36"/>
+      <c r="E30" s="39"/>
+      <c r="F30" s="38"/>
       <c r="G30" s="28" t="s">
         <v>115</v>
       </c>
       <c r="H30" s="37"/>
-      <c r="I30" s="36"/>
-    </row>
-    <row r="31" spans="1:11" ht="157.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="35" t="s">
+      <c r="I30" s="38"/>
+    </row>
+    <row r="31" spans="1:11" ht="157.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="39" t="s">
         <v>116</v>
       </c>
-      <c r="B31" s="36" t="s">
+      <c r="B31" s="38" t="s">
         <v>117</v>
       </c>
-      <c r="C31" s="35" t="s">
+      <c r="C31" s="39" t="s">
         <v>118</v>
       </c>
-      <c r="D31" s="35" t="s">
+      <c r="D31" s="39" t="s">
         <v>96</v>
       </c>
-      <c r="E31" s="35" t="s">
+      <c r="E31" s="39" t="s">
         <v>119</v>
       </c>
-      <c r="F31" s="36" t="s">
+      <c r="F31" s="38" t="s">
         <v>120</v>
       </c>
-      <c r="G31" s="38" t="s">
+      <c r="G31" s="40" t="s">
         <v>121</v>
       </c>
       <c r="H31" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="I31" s="36" t="s">
+      <c r="I31" s="38" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="35"/>
-      <c r="B32" s="36"/>
-      <c r="C32" s="35"/>
-      <c r="D32" s="35"/>
-      <c r="E32" s="35"/>
-      <c r="F32" s="36"/>
-      <c r="G32" s="38"/>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A32" s="39"/>
+      <c r="B32" s="38"/>
+      <c r="C32" s="39"/>
+      <c r="D32" s="39"/>
+      <c r="E32" s="39"/>
+      <c r="F32" s="38"/>
+      <c r="G32" s="40"/>
       <c r="H32" s="22" t="s">
         <v>124</v>
       </c>
-      <c r="I32" s="36"/>
+      <c r="I32" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="37">
+    <mergeCell ref="A15:I15"/>
+    <mergeCell ref="A16:A23"/>
+    <mergeCell ref="B16:B23"/>
+    <mergeCell ref="C16:C23"/>
+    <mergeCell ref="E16:E23"/>
+    <mergeCell ref="F16:F23"/>
+    <mergeCell ref="I16:I23"/>
+    <mergeCell ref="I24:I25"/>
+    <mergeCell ref="A26:I26"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="I27:I28"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="H24:H25"/>
     <mergeCell ref="H29:H30"/>
     <mergeCell ref="I29:I30"/>
     <mergeCell ref="A31:A32"/>
@@ -2531,28 +2545,6 @@
     <mergeCell ref="C29:C30"/>
     <mergeCell ref="E29:E30"/>
     <mergeCell ref="F29:F30"/>
-    <mergeCell ref="I24:I25"/>
-    <mergeCell ref="A26:I26"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="H27:H28"/>
-    <mergeCell ref="I27:I28"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="H24:H25"/>
-    <mergeCell ref="A15:I15"/>
-    <mergeCell ref="A16:A23"/>
-    <mergeCell ref="B16:B23"/>
-    <mergeCell ref="C16:C23"/>
-    <mergeCell ref="E16:E23"/>
-    <mergeCell ref="F16:F23"/>
-    <mergeCell ref="I16:I23"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B4" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
@@ -2575,16 +2567,16 @@
       <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="29.5703125" customWidth="1"/>
-    <col min="4" max="5" width="11.7109375" customWidth="1"/>
-    <col min="6" max="6" width="46.85546875" customWidth="1"/>
-    <col min="7" max="7" width="46.28515625" customWidth="1"/>
-    <col min="9" max="9" width="45.140625" customWidth="1"/>
+    <col min="3" max="3" width="29.5546875" customWidth="1"/>
+    <col min="4" max="5" width="11.6640625" customWidth="1"/>
+    <col min="6" max="6" width="46.88671875" customWidth="1"/>
+    <col min="7" max="7" width="46.33203125" customWidth="1"/>
+    <col min="9" max="9" width="45.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C3" s="3" t="s">
         <v>14</v>
       </c>
@@ -2604,7 +2596,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="4" spans="3:9" ht="105" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:9" ht="86.4" x14ac:dyDescent="0.3">
       <c r="C4" s="4" t="s">
         <v>25</v>
       </c>
@@ -2625,7 +2617,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="5" spans="3:9" ht="105" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:9" ht="86.4" x14ac:dyDescent="0.3">
       <c r="C5" s="4" t="s">
         <v>33</v>
       </c>
@@ -2645,10 +2637,10 @@
         <v>128</v>
       </c>
       <c r="I5" s="29" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="6" spans="3:9" ht="120" x14ac:dyDescent="0.25">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="6" spans="3:9" ht="115.2" x14ac:dyDescent="0.3">
       <c r="C6" s="9" t="s">
         <v>42</v>
       </c>
@@ -2671,7 +2663,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="7" spans="3:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:9" ht="86.4" x14ac:dyDescent="0.3">
       <c r="C7" s="9" t="s">
         <v>50</v>
       </c>
@@ -2694,7 +2686,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="8" spans="3:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="C8" s="9" t="s">
         <v>60</v>
       </c>
@@ -2730,23 +2722,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="C4:M25"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19:H20"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="15.5703125" customWidth="1"/>
-    <col min="4" max="4" width="27.85546875" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" customWidth="1"/>
-    <col min="7" max="7" width="10.5703125" customWidth="1"/>
-    <col min="8" max="8" width="25.5703125" customWidth="1"/>
-    <col min="9" max="9" width="24.28515625" customWidth="1"/>
-    <col min="10" max="10" width="20.42578125" customWidth="1"/>
+    <col min="3" max="3" width="15.5546875" customWidth="1"/>
+    <col min="4" max="4" width="27.88671875" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" customWidth="1"/>
+    <col min="6" max="6" width="14.5546875" customWidth="1"/>
+    <col min="7" max="7" width="10.5546875" customWidth="1"/>
+    <col min="8" max="8" width="25.5546875" customWidth="1"/>
+    <col min="9" max="9" width="24.33203125" customWidth="1"/>
+    <col min="10" max="10" width="20.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C4" s="1" t="s">
         <v>66</v>
       </c>
@@ -2775,308 +2767,308 @@
         <v>74</v>
       </c>
     </row>
-    <row r="5" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C5" s="34" t="s">
+    <row r="5" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C5" s="41" t="s">
         <v>75</v>
       </c>
-      <c r="D5" s="34"/>
-      <c r="E5" s="34"/>
-      <c r="F5" s="34"/>
-      <c r="G5" s="34"/>
-      <c r="H5" s="34"/>
-      <c r="I5" s="34"/>
-      <c r="J5" s="34"/>
-      <c r="K5" s="34"/>
-    </row>
-    <row r="6" spans="3:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C6" s="36" t="s">
+      <c r="D5" s="41"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="41"/>
+      <c r="H5" s="41"/>
+      <c r="I5" s="41"/>
+      <c r="J5" s="41"/>
+      <c r="K5" s="41"/>
+    </row>
+    <row r="6" spans="3:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C6" s="38" t="s">
         <v>76</v>
       </c>
-      <c r="D6" s="36" t="s">
+      <c r="D6" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="E6" s="36" t="s">
+      <c r="E6" s="38" t="s">
         <v>77</v>
       </c>
-      <c r="F6" s="36" t="s">
+      <c r="F6" s="38" t="s">
         <v>78</v>
       </c>
-      <c r="G6" s="36" t="s">
+      <c r="G6" s="38" t="s">
         <v>79</v>
       </c>
-      <c r="H6" s="36" t="s">
+      <c r="H6" s="38" t="s">
         <v>80</v>
       </c>
-      <c r="I6" s="38" t="s">
+      <c r="I6" s="40" t="s">
         <v>133</v>
       </c>
-      <c r="J6" s="36" t="s">
+      <c r="J6" s="38" t="s">
         <v>134</v>
       </c>
-      <c r="K6" s="36" t="s">
+      <c r="K6" s="38" t="s">
         <v>83</v>
       </c>
       <c r="M6" s="7"/>
     </row>
-    <row r="7" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C7" s="36"/>
-      <c r="D7" s="36"/>
-      <c r="E7" s="36"/>
-      <c r="F7" s="36"/>
-      <c r="G7" s="36"/>
-      <c r="H7" s="36"/>
-      <c r="I7" s="38"/>
-      <c r="J7" s="36"/>
-      <c r="K7" s="36"/>
+    <row r="7" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C7" s="38"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="38"/>
+      <c r="G7" s="38"/>
+      <c r="H7" s="38"/>
+      <c r="I7" s="40"/>
+      <c r="J7" s="38"/>
+      <c r="K7" s="38"/>
       <c r="M7" s="7"/>
     </row>
-    <row r="8" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C8" s="36"/>
-      <c r="D8" s="36"/>
-      <c r="E8" s="36"/>
-      <c r="F8" s="36"/>
-      <c r="G8" s="36"/>
-      <c r="H8" s="36"/>
-      <c r="I8" s="38"/>
-      <c r="J8" s="36"/>
-      <c r="K8" s="36"/>
+    <row r="8" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C8" s="38"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="38"/>
+      <c r="H8" s="38"/>
+      <c r="I8" s="40"/>
+      <c r="J8" s="38"/>
+      <c r="K8" s="38"/>
       <c r="M8" s="7"/>
     </row>
-    <row r="9" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C9" s="36"/>
-      <c r="D9" s="36"/>
-      <c r="E9" s="36"/>
-      <c r="F9" s="36"/>
-      <c r="G9" s="36"/>
-      <c r="H9" s="36"/>
-      <c r="I9" s="38"/>
-      <c r="J9" s="36"/>
-      <c r="K9" s="36"/>
+    <row r="9" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C9" s="38"/>
+      <c r="D9" s="38"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="38"/>
+      <c r="G9" s="38"/>
+      <c r="H9" s="38"/>
+      <c r="I9" s="40"/>
+      <c r="J9" s="38"/>
+      <c r="K9" s="38"/>
       <c r="M9" s="7"/>
     </row>
-    <row r="10" spans="3:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C10" s="36"/>
-      <c r="D10" s="36"/>
-      <c r="E10" s="36"/>
-      <c r="F10" s="36"/>
-      <c r="G10" s="36"/>
-      <c r="H10" s="36"/>
-      <c r="I10" s="38"/>
-      <c r="J10" s="36" t="s">
+    <row r="10" spans="3:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C10" s="38"/>
+      <c r="D10" s="38"/>
+      <c r="E10" s="38"/>
+      <c r="F10" s="38"/>
+      <c r="G10" s="38"/>
+      <c r="H10" s="38"/>
+      <c r="I10" s="40"/>
+      <c r="J10" s="38" t="s">
         <v>135</v>
       </c>
-      <c r="K10" s="36"/>
-    </row>
-    <row r="11" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C11" s="36"/>
-      <c r="D11" s="36"/>
-      <c r="E11" s="36"/>
-      <c r="F11" s="36"/>
-      <c r="G11" s="36"/>
-      <c r="H11" s="36"/>
-      <c r="I11" s="38"/>
-      <c r="J11" s="36"/>
-      <c r="K11" s="36"/>
+      <c r="K10" s="38"/>
+    </row>
+    <row r="11" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C11" s="38"/>
+      <c r="D11" s="38"/>
+      <c r="E11" s="38"/>
+      <c r="F11" s="38"/>
+      <c r="G11" s="38"/>
+      <c r="H11" s="38"/>
+      <c r="I11" s="40"/>
+      <c r="J11" s="38"/>
+      <c r="K11" s="38"/>
       <c r="M11" s="4"/>
     </row>
-    <row r="12" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C12" s="36"/>
-      <c r="D12" s="36"/>
-      <c r="E12" s="36"/>
-      <c r="F12" s="36"/>
-      <c r="G12" s="36"/>
-      <c r="H12" s="36"/>
-      <c r="I12" s="38"/>
-      <c r="J12" s="36"/>
-      <c r="K12" s="36"/>
+    <row r="12" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C12" s="38"/>
+      <c r="D12" s="38"/>
+      <c r="E12" s="38"/>
+      <c r="F12" s="38"/>
+      <c r="G12" s="38"/>
+      <c r="H12" s="38"/>
+      <c r="I12" s="40"/>
+      <c r="J12" s="38"/>
+      <c r="K12" s="38"/>
       <c r="M12" s="4"/>
     </row>
-    <row r="13" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C13" s="36"/>
-      <c r="D13" s="36"/>
-      <c r="E13" s="36"/>
-      <c r="F13" s="36"/>
-      <c r="G13" s="36"/>
-      <c r="H13" s="36"/>
-      <c r="I13" s="38"/>
-      <c r="J13" s="36"/>
-      <c r="K13" s="36"/>
+    <row r="13" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C13" s="38"/>
+      <c r="D13" s="38"/>
+      <c r="E13" s="38"/>
+      <c r="F13" s="38"/>
+      <c r="G13" s="38"/>
+      <c r="H13" s="38"/>
+      <c r="I13" s="40"/>
+      <c r="J13" s="38"/>
+      <c r="K13" s="38"/>
       <c r="M13" s="4"/>
     </row>
-    <row r="14" spans="3:13" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C14" s="36" t="s">
+    <row r="14" spans="3:13" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C14" s="38" t="s">
         <v>103</v>
       </c>
-      <c r="D14" s="36" t="s">
+      <c r="D14" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="E14" s="36" t="s">
+      <c r="E14" s="38" t="s">
         <v>104</v>
       </c>
-      <c r="F14" s="36" t="s">
+      <c r="F14" s="38" t="s">
         <v>105</v>
       </c>
-      <c r="G14" s="36" t="s">
+      <c r="G14" s="38" t="s">
         <v>79</v>
       </c>
-      <c r="H14" s="36" t="s">
+      <c r="H14" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="I14" s="38" t="s">
+      <c r="I14" s="40" t="s">
         <v>136</v>
       </c>
       <c r="J14" s="37">
         <v>0.96199999999999997</v>
       </c>
-      <c r="K14" s="36" t="s">
+      <c r="K14" s="38" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="15" spans="3:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C15" s="36"/>
-      <c r="D15" s="36"/>
-      <c r="E15" s="36"/>
-      <c r="F15" s="36"/>
-      <c r="G15" s="36"/>
-      <c r="H15" s="36"/>
-      <c r="I15" s="38"/>
+    <row r="15" spans="3:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C15" s="38"/>
+      <c r="D15" s="38"/>
+      <c r="E15" s="38"/>
+      <c r="F15" s="38"/>
+      <c r="G15" s="38"/>
+      <c r="H15" s="38"/>
+      <c r="I15" s="40"/>
       <c r="J15" s="37"/>
-      <c r="K15" s="36"/>
-    </row>
-    <row r="16" spans="3:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C16" s="36" t="s">
+      <c r="K15" s="38"/>
+    </row>
+    <row r="16" spans="3:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C16" s="38" t="s">
         <v>137</v>
       </c>
-      <c r="D16" s="36" t="s">
+      <c r="D16" s="38" t="s">
         <v>94</v>
       </c>
-      <c r="E16" s="36" t="s">
+      <c r="E16" s="38" t="s">
         <v>138</v>
       </c>
-      <c r="F16" s="36" t="s">
+      <c r="F16" s="38" t="s">
         <v>96</v>
       </c>
-      <c r="G16" s="36" t="s">
+      <c r="G16" s="38" t="s">
         <v>79</v>
       </c>
-      <c r="H16" s="35" t="s">
+      <c r="H16" s="39" t="s">
         <v>97</v>
       </c>
-      <c r="I16" s="38" t="s">
+      <c r="I16" s="40" t="s">
         <v>139</v>
       </c>
       <c r="J16" s="37">
         <v>0.98299999999999998</v>
       </c>
-      <c r="K16" s="36" t="s">
+      <c r="K16" s="38" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C17" s="36"/>
-      <c r="D17" s="36"/>
-      <c r="E17" s="36"/>
-      <c r="F17" s="36"/>
-      <c r="G17" s="36"/>
-      <c r="H17" s="35"/>
-      <c r="I17" s="38"/>
+    <row r="17" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C17" s="38"/>
+      <c r="D17" s="38"/>
+      <c r="E17" s="38"/>
+      <c r="F17" s="38"/>
+      <c r="G17" s="38"/>
+      <c r="H17" s="39"/>
+      <c r="I17" s="40"/>
       <c r="J17" s="37"/>
-      <c r="K17" s="36"/>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C18" s="34" t="s">
+      <c r="K17" s="38"/>
+    </row>
+    <row r="18" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C18" s="41" t="s">
         <v>102</v>
       </c>
-      <c r="D18" s="34"/>
-      <c r="E18" s="34"/>
-      <c r="F18" s="34"/>
-      <c r="G18" s="34"/>
-      <c r="H18" s="34"/>
-      <c r="I18" s="34"/>
-      <c r="J18" s="34"/>
-      <c r="K18" s="34"/>
-    </row>
-    <row r="19" spans="3:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C19" s="35" t="s">
+      <c r="D18" s="41"/>
+      <c r="E18" s="41"/>
+      <c r="F18" s="41"/>
+      <c r="G18" s="41"/>
+      <c r="H18" s="41"/>
+      <c r="I18" s="41"/>
+      <c r="J18" s="41"/>
+      <c r="K18" s="41"/>
+    </row>
+    <row r="19" spans="3:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C19" s="39" t="s">
         <v>110</v>
       </c>
-      <c r="D19" s="36" t="s">
+      <c r="D19" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="E19" s="36" t="s">
+      <c r="E19" s="38" t="s">
         <v>104</v>
       </c>
-      <c r="F19" s="36" t="s">
+      <c r="F19" s="38" t="s">
         <v>140</v>
       </c>
-      <c r="G19" s="36" t="s">
+      <c r="G19" s="38" t="s">
         <v>79</v>
       </c>
-      <c r="H19" s="36" t="s">
+      <c r="H19" s="38" t="s">
         <v>112</v>
       </c>
-      <c r="I19" s="38" t="s">
+      <c r="I19" s="40" t="s">
         <v>141</v>
       </c>
       <c r="J19" s="37">
         <v>0.9718</v>
       </c>
-      <c r="K19" s="36" t="s">
+      <c r="K19" s="38" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="20" spans="3:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C20" s="35"/>
-      <c r="D20" s="36"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="36"/>
-      <c r="G20" s="36"/>
-      <c r="H20" s="36"/>
-      <c r="I20" s="38"/>
+    <row r="20" spans="3:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C20" s="39"/>
+      <c r="D20" s="38"/>
+      <c r="E20" s="38"/>
+      <c r="F20" s="38"/>
+      <c r="G20" s="38"/>
+      <c r="H20" s="38"/>
+      <c r="I20" s="40"/>
       <c r="J20" s="37"/>
-      <c r="K20" s="36"/>
-    </row>
-    <row r="21" spans="3:11" ht="63" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C21" s="35" t="s">
+      <c r="K20" s="38"/>
+    </row>
+    <row r="21" spans="3:11" ht="63" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C21" s="39" t="s">
         <v>116</v>
       </c>
-      <c r="D21" s="36" t="s">
+      <c r="D21" s="38" t="s">
         <v>117</v>
       </c>
-      <c r="E21" s="36" t="s">
+      <c r="E21" s="38" t="s">
         <v>118</v>
       </c>
-      <c r="F21" s="36" t="s">
+      <c r="F21" s="38" t="s">
         <v>96</v>
       </c>
-      <c r="G21" s="36" t="s">
+      <c r="G21" s="38" t="s">
         <v>119</v>
       </c>
-      <c r="H21" s="36" t="s">
+      <c r="H21" s="38" t="s">
         <v>120</v>
       </c>
-      <c r="I21" s="38" t="s">
+      <c r="I21" s="40" t="s">
         <v>142</v>
       </c>
-      <c r="J21" s="36" t="s">
+      <c r="J21" s="38" t="s">
         <v>143</v>
       </c>
-      <c r="K21" s="36" t="s">
+      <c r="K21" s="38" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="22" spans="3:11" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C22" s="35"/>
-      <c r="D22" s="36"/>
-      <c r="E22" s="36"/>
-      <c r="F22" s="36"/>
-      <c r="G22" s="36"/>
-      <c r="H22" s="36"/>
-      <c r="I22" s="38"/>
-      <c r="J22" s="36"/>
-      <c r="K22" s="36"/>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:11" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C22" s="39"/>
+      <c r="D22" s="38"/>
+      <c r="E22" s="38"/>
+      <c r="F22" s="38"/>
+      <c r="G22" s="38"/>
+      <c r="H22" s="38"/>
+      <c r="I22" s="40"/>
+      <c r="J22" s="38"/>
+      <c r="K22" s="38"/>
+    </row>
+    <row r="23" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C23" s="30"/>
       <c r="D23" s="31"/>
       <c r="E23" s="31"/>
@@ -3087,32 +3079,26 @@
       <c r="J23" s="31"/>
       <c r="K23" s="32"/>
     </row>
-    <row r="25" spans="3:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:11" ht="16.2" x14ac:dyDescent="0.3">
       <c r="C25" s="33" t="s">
-        <v>144</v>
+        <v>168</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="H21:H22"/>
-    <mergeCell ref="I21:I22"/>
-    <mergeCell ref="J21:J22"/>
-    <mergeCell ref="K21:K22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="C18:K18"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="J19:J20"/>
-    <mergeCell ref="K19:K20"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="J14:J15"/>
+    <mergeCell ref="C5:K5"/>
+    <mergeCell ref="C6:C13"/>
+    <mergeCell ref="D6:D13"/>
+    <mergeCell ref="E6:E13"/>
+    <mergeCell ref="F6:F13"/>
+    <mergeCell ref="G6:G13"/>
+    <mergeCell ref="H6:H13"/>
+    <mergeCell ref="I6:I13"/>
+    <mergeCell ref="J6:J9"/>
+    <mergeCell ref="K6:K13"/>
+    <mergeCell ref="J10:J13"/>
     <mergeCell ref="K14:K15"/>
     <mergeCell ref="C16:C17"/>
     <mergeCell ref="D16:D17"/>
@@ -3128,20 +3114,26 @@
     <mergeCell ref="E14:E15"/>
     <mergeCell ref="F14:F15"/>
     <mergeCell ref="G14:G15"/>
-    <mergeCell ref="C5:K5"/>
-    <mergeCell ref="C6:C13"/>
-    <mergeCell ref="D6:D13"/>
-    <mergeCell ref="E6:E13"/>
-    <mergeCell ref="F6:F13"/>
-    <mergeCell ref="G6:G13"/>
-    <mergeCell ref="H6:H13"/>
-    <mergeCell ref="I6:I13"/>
-    <mergeCell ref="J6:J9"/>
-    <mergeCell ref="K6:K13"/>
-    <mergeCell ref="J10:J13"/>
     <mergeCell ref="H14:H15"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="J14:J15"/>
+    <mergeCell ref="C18:K18"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="J19:J20"/>
+    <mergeCell ref="K19:K20"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="J21:J22"/>
+    <mergeCell ref="K21:K22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="G21:G22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -3150,286 +3142,286 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7177393-CE06-4BCE-A621-C1673F8D170C}">
-  <dimension ref="F4:L45"/>
+  <dimension ref="F4:L55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="H43" sqref="H43"/>
+    <sheetView topLeftCell="F35" workbookViewId="0">
+      <selection activeCell="H45" sqref="H45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="6" max="6" width="20" customWidth="1"/>
-    <col min="7" max="7" width="28.5703125" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" customWidth="1"/>
-    <col min="9" max="9" width="15.5703125" customWidth="1"/>
-    <col min="10" max="10" width="20.28515625" customWidth="1"/>
-    <col min="11" max="11" width="37.140625" customWidth="1"/>
-    <col min="12" max="12" width="17.28515625" customWidth="1"/>
+    <col min="7" max="7" width="28.5546875" customWidth="1"/>
+    <col min="8" max="8" width="14.5546875" customWidth="1"/>
+    <col min="9" max="9" width="15.5546875" customWidth="1"/>
+    <col min="10" max="10" width="20.33203125" customWidth="1"/>
+    <col min="11" max="11" width="37.109375" customWidth="1"/>
+    <col min="12" max="12" width="17.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="6:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="6:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="6:12" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="5" spans="6:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F5" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="G5" s="16" t="s">
         <v>146</v>
-      </c>
-      <c r="G5" s="16" t="s">
-        <v>147</v>
       </c>
       <c r="H5" s="16" t="s">
         <v>68</v>
       </c>
       <c r="I5" s="16" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J5" s="16" t="s">
         <v>71</v>
       </c>
       <c r="K5" s="16" t="s">
+        <v>151</v>
+      </c>
+      <c r="L5" s="17" t="s">
         <v>152</v>
       </c>
-      <c r="L5" s="17" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="6" spans="6:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F6" s="34" t="s">
-        <v>158</v>
-      </c>
-      <c r="G6" s="34"/>
-      <c r="H6" s="34"/>
-      <c r="I6" s="34"/>
-      <c r="J6" s="34"/>
-      <c r="K6" s="34"/>
-      <c r="L6" s="34"/>
-    </row>
-    <row r="7" spans="6:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F7" s="36" t="s">
+    </row>
+    <row r="6" spans="6:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F6" s="41" t="s">
+        <v>157</v>
+      </c>
+      <c r="G6" s="41"/>
+      <c r="H6" s="41"/>
+      <c r="I6" s="41"/>
+      <c r="J6" s="41"/>
+      <c r="K6" s="41"/>
+      <c r="L6" s="41"/>
+    </row>
+    <row r="7" spans="6:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F7" s="38" t="s">
         <v>76</v>
       </c>
-      <c r="G7" s="36" t="s">
-        <v>155</v>
-      </c>
-      <c r="H7" s="36" t="s">
+      <c r="G7" s="38" t="s">
+        <v>154</v>
+      </c>
+      <c r="H7" s="38" t="s">
         <v>104</v>
       </c>
-      <c r="I7" s="36" t="s">
-        <v>148</v>
-      </c>
-      <c r="J7" s="36" t="s">
+      <c r="I7" s="38" t="s">
+        <v>147</v>
+      </c>
+      <c r="J7" s="38" t="s">
         <v>80</v>
       </c>
-      <c r="K7" s="38" t="s">
-        <v>150</v>
-      </c>
-      <c r="L7" s="39">
+      <c r="K7" s="40" t="s">
+        <v>149</v>
+      </c>
+      <c r="L7" s="42">
         <v>0.98</v>
       </c>
     </row>
-    <row r="8" spans="6:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F8" s="36"/>
-      <c r="G8" s="36"/>
-      <c r="H8" s="36"/>
-      <c r="I8" s="36"/>
-      <c r="J8" s="36"/>
-      <c r="K8" s="38"/>
-      <c r="L8" s="36"/>
-    </row>
-    <row r="9" spans="6:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F9" s="36"/>
-      <c r="G9" s="36"/>
-      <c r="H9" s="36"/>
-      <c r="I9" s="36"/>
-      <c r="J9" s="36"/>
-      <c r="K9" s="38"/>
-      <c r="L9" s="36"/>
-    </row>
-    <row r="10" spans="6:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F10" s="36"/>
-      <c r="G10" s="36"/>
-      <c r="H10" s="36"/>
-      <c r="I10" s="36"/>
-      <c r="J10" s="36"/>
-      <c r="K10" s="38"/>
-      <c r="L10" s="36"/>
-    </row>
-    <row r="11" spans="6:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F11" s="36"/>
-      <c r="G11" s="36"/>
-      <c r="H11" s="36"/>
-      <c r="I11" s="36"/>
-      <c r="J11" s="36"/>
-      <c r="K11" s="38"/>
-      <c r="L11" s="39">
+    <row r="8" spans="6:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F8" s="38"/>
+      <c r="G8" s="38"/>
+      <c r="H8" s="38"/>
+      <c r="I8" s="38"/>
+      <c r="J8" s="38"/>
+      <c r="K8" s="40"/>
+      <c r="L8" s="38"/>
+    </row>
+    <row r="9" spans="6:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F9" s="38"/>
+      <c r="G9" s="38"/>
+      <c r="H9" s="38"/>
+      <c r="I9" s="38"/>
+      <c r="J9" s="38"/>
+      <c r="K9" s="40"/>
+      <c r="L9" s="38"/>
+    </row>
+    <row r="10" spans="6:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F10" s="38"/>
+      <c r="G10" s="38"/>
+      <c r="H10" s="38"/>
+      <c r="I10" s="38"/>
+      <c r="J10" s="38"/>
+      <c r="K10" s="40"/>
+      <c r="L10" s="38"/>
+    </row>
+    <row r="11" spans="6:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F11" s="38"/>
+      <c r="G11" s="38"/>
+      <c r="H11" s="38"/>
+      <c r="I11" s="38"/>
+      <c r="J11" s="38"/>
+      <c r="K11" s="40"/>
+      <c r="L11" s="42">
         <v>0.94</v>
       </c>
     </row>
-    <row r="12" spans="6:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F12" s="36"/>
-      <c r="G12" s="36"/>
-      <c r="H12" s="36"/>
-      <c r="I12" s="36"/>
-      <c r="J12" s="36"/>
-      <c r="K12" s="38"/>
-      <c r="L12" s="36"/>
-    </row>
-    <row r="13" spans="6:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F13" s="36"/>
-      <c r="G13" s="36"/>
-      <c r="H13" s="36"/>
-      <c r="I13" s="36"/>
-      <c r="J13" s="36"/>
-      <c r="K13" s="38"/>
-      <c r="L13" s="36"/>
-    </row>
-    <row r="14" spans="6:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F14" s="36"/>
-      <c r="G14" s="36"/>
-      <c r="H14" s="36"/>
-      <c r="I14" s="36"/>
-      <c r="J14" s="36"/>
-      <c r="K14" s="38"/>
-      <c r="L14" s="36"/>
-    </row>
-    <row r="15" spans="6:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F15" s="36" t="s">
+    <row r="12" spans="6:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F12" s="38"/>
+      <c r="G12" s="38"/>
+      <c r="H12" s="38"/>
+      <c r="I12" s="38"/>
+      <c r="J12" s="38"/>
+      <c r="K12" s="40"/>
+      <c r="L12" s="38"/>
+    </row>
+    <row r="13" spans="6:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F13" s="38"/>
+      <c r="G13" s="38"/>
+      <c r="H13" s="38"/>
+      <c r="I13" s="38"/>
+      <c r="J13" s="38"/>
+      <c r="K13" s="40"/>
+      <c r="L13" s="38"/>
+    </row>
+    <row r="14" spans="6:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F14" s="38"/>
+      <c r="G14" s="38"/>
+      <c r="H14" s="38"/>
+      <c r="I14" s="38"/>
+      <c r="J14" s="38"/>
+      <c r="K14" s="40"/>
+      <c r="L14" s="38"/>
+    </row>
+    <row r="15" spans="6:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F15" s="38" t="s">
         <v>103</v>
       </c>
-      <c r="G15" s="36" t="s">
+      <c r="G15" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="H15" s="36" t="s">
+      <c r="H15" s="38" t="s">
         <v>104</v>
       </c>
-      <c r="I15" s="36" t="s">
-        <v>148</v>
-      </c>
-      <c r="J15" s="36" t="s">
+      <c r="I15" s="38" t="s">
+        <v>147</v>
+      </c>
+      <c r="J15" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="K15" s="38" t="s">
+      <c r="K15" s="40" t="s">
         <v>136</v>
       </c>
       <c r="L15" s="37">
         <v>0.96199999999999997</v>
       </c>
     </row>
-    <row r="16" spans="6:12" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F16" s="36"/>
-      <c r="G16" s="36"/>
-      <c r="H16" s="36"/>
-      <c r="I16" s="36"/>
-      <c r="J16" s="36"/>
-      <c r="K16" s="38"/>
+    <row r="16" spans="6:12" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F16" s="38"/>
+      <c r="G16" s="38"/>
+      <c r="H16" s="38"/>
+      <c r="I16" s="38"/>
+      <c r="J16" s="38"/>
+      <c r="K16" s="40"/>
       <c r="L16" s="37"/>
     </row>
-    <row r="17" spans="6:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F17" s="36" t="s">
+    <row r="17" spans="6:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F17" s="38" t="s">
         <v>137</v>
       </c>
-      <c r="G17" s="36" t="s">
-        <v>156</v>
-      </c>
-      <c r="H17" s="36" t="s">
+      <c r="G17" s="38" t="s">
+        <v>155</v>
+      </c>
+      <c r="H17" s="38" t="s">
         <v>118</v>
       </c>
-      <c r="I17" s="36" t="s">
-        <v>148</v>
-      </c>
-      <c r="J17" s="35" t="s">
+      <c r="I17" s="38" t="s">
+        <v>147</v>
+      </c>
+      <c r="J17" s="39" t="s">
         <v>97</v>
       </c>
-      <c r="K17" s="38" t="s">
+      <c r="K17" s="40" t="s">
         <v>139</v>
       </c>
       <c r="L17" s="37">
         <v>0.98299999999999998</v>
       </c>
     </row>
-    <row r="18" spans="6:12" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F18" s="36"/>
-      <c r="G18" s="36"/>
-      <c r="H18" s="36"/>
-      <c r="I18" s="36"/>
-      <c r="J18" s="35"/>
-      <c r="K18" s="38"/>
+    <row r="18" spans="6:12" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F18" s="38"/>
+      <c r="G18" s="38"/>
+      <c r="H18" s="38"/>
+      <c r="I18" s="38"/>
+      <c r="J18" s="39"/>
+      <c r="K18" s="40"/>
       <c r="L18" s="37"/>
     </row>
-    <row r="19" spans="6:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F19" s="34" t="s">
-        <v>159</v>
-      </c>
-      <c r="G19" s="34"/>
-      <c r="H19" s="34"/>
-      <c r="I19" s="34"/>
-      <c r="J19" s="34"/>
-      <c r="K19" s="34"/>
-      <c r="L19" s="34"/>
-    </row>
-    <row r="20" spans="6:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F20" s="35" t="s">
+    <row r="19" spans="6:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F19" s="41" t="s">
+        <v>158</v>
+      </c>
+      <c r="G19" s="41"/>
+      <c r="H19" s="41"/>
+      <c r="I19" s="41"/>
+      <c r="J19" s="41"/>
+      <c r="K19" s="41"/>
+      <c r="L19" s="41"/>
+    </row>
+    <row r="20" spans="6:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F20" s="39" t="s">
         <v>110</v>
       </c>
-      <c r="G20" s="36" t="s">
-        <v>154</v>
-      </c>
-      <c r="H20" s="36" t="s">
+      <c r="G20" s="38" t="s">
+        <v>153</v>
+      </c>
+      <c r="H20" s="38" t="s">
         <v>104</v>
       </c>
-      <c r="I20" s="36" t="s">
-        <v>148</v>
-      </c>
-      <c r="J20" s="36" t="s">
+      <c r="I20" s="38" t="s">
+        <v>147</v>
+      </c>
+      <c r="J20" s="38" t="s">
         <v>112</v>
       </c>
-      <c r="K20" s="38" t="s">
+      <c r="K20" s="40" t="s">
         <v>141</v>
       </c>
       <c r="L20" s="37">
         <v>0.9718</v>
       </c>
     </row>
-    <row r="21" spans="6:12" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F21" s="35"/>
-      <c r="G21" s="36"/>
-      <c r="H21" s="36"/>
-      <c r="I21" s="36"/>
-      <c r="J21" s="36"/>
-      <c r="K21" s="38"/>
+    <row r="21" spans="6:12" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F21" s="39"/>
+      <c r="G21" s="38"/>
+      <c r="H21" s="38"/>
+      <c r="I21" s="38"/>
+      <c r="J21" s="38"/>
+      <c r="K21" s="40"/>
       <c r="L21" s="37"/>
     </row>
-    <row r="22" spans="6:12" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F22" s="35" t="s">
+    <row r="22" spans="6:12" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F22" s="39" t="s">
         <v>116</v>
       </c>
-      <c r="G22" s="36" t="s">
-        <v>157</v>
-      </c>
-      <c r="H22" s="36" t="s">
+      <c r="G22" s="38" t="s">
+        <v>156</v>
+      </c>
+      <c r="H22" s="38" t="s">
         <v>118</v>
       </c>
-      <c r="I22" s="36" t="s">
-        <v>149</v>
-      </c>
-      <c r="J22" s="36" t="s">
+      <c r="I22" s="38" t="s">
+        <v>148</v>
+      </c>
+      <c r="J22" s="38" t="s">
         <v>120</v>
       </c>
-      <c r="K22" s="38" t="s">
+      <c r="K22" s="40" t="s">
         <v>142</v>
       </c>
-      <c r="L22" s="39">
+      <c r="L22" s="42">
         <v>0.99</v>
       </c>
     </row>
-    <row r="23" spans="6:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F23" s="35"/>
-      <c r="G23" s="36"/>
-      <c r="H23" s="36"/>
-      <c r="I23" s="36"/>
-      <c r="J23" s="36"/>
-      <c r="K23" s="38"/>
-      <c r="L23" s="36"/>
-    </row>
-    <row r="24" spans="6:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="6:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F23" s="39"/>
+      <c r="G23" s="38"/>
+      <c r="H23" s="38"/>
+      <c r="I23" s="38"/>
+      <c r="J23" s="38"/>
+      <c r="K23" s="40"/>
+      <c r="L23" s="38"/>
+    </row>
+    <row r="24" spans="6:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F24" s="30"/>
       <c r="G24" s="31"/>
       <c r="H24" s="31"/>
@@ -3438,69 +3430,69 @@
       <c r="K24" s="31"/>
       <c r="L24" s="31"/>
     </row>
-    <row r="29" spans="6:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="6:12" x14ac:dyDescent="0.3">
       <c r="G29" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H29" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I29" t="s">
         <v>21</v>
       </c>
       <c r="J29" t="s">
+        <v>160</v>
+      </c>
+      <c r="K29" t="s">
         <v>161</v>
       </c>
-      <c r="K29" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="30" spans="6:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="6:12" x14ac:dyDescent="0.3">
       <c r="F30" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="6:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="6:12" x14ac:dyDescent="0.3">
       <c r="F31" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="32" spans="6:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="6:12" x14ac:dyDescent="0.3">
       <c r="F32" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="33" spans="6:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F33" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="36" spans="6:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="6:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F36" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G36" t="s">
+        <v>164</v>
+      </c>
+      <c r="H36" t="s">
         <v>165</v>
       </c>
-      <c r="H36" t="s">
+      <c r="I36" t="s">
         <v>166</v>
       </c>
-      <c r="I36" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="37" spans="6:10" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="37" spans="6:10" ht="23.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F37">
         <f>1-G37</f>
         <v>0.47399999999999998</v>
       </c>
-      <c r="G37" s="40">
+      <c r="G37" s="34">
         <v>0.52600000000000002</v>
       </c>
-      <c r="H37" s="40">
+      <c r="H37" s="34">
         <v>3.8399999999999997E-2</v>
       </c>
-      <c r="I37" s="41">
+      <c r="I37" s="35">
         <f>G37-F37</f>
         <v>5.2000000000000046E-2</v>
       </c>
@@ -3509,38 +3501,38 @@
         <v>7.6799999999999993E-2</v>
       </c>
     </row>
-    <row r="38" spans="6:10" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="6:10" ht="23.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F38">
-        <f t="shared" ref="F38:F45" si="0">1-G38</f>
+        <f t="shared" ref="F38:F44" si="0">1-G38</f>
         <v>0.48799999999999999</v>
       </c>
-      <c r="G38" s="40">
+      <c r="G38" s="34">
         <v>0.51200000000000001</v>
       </c>
-      <c r="H38" s="40">
+      <c r="H38" s="34">
         <v>3.6700000000000003E-2</v>
       </c>
-      <c r="I38" s="41">
-        <f t="shared" ref="I38:I45" si="1">G38-F38</f>
+      <c r="I38" s="35">
+        <f t="shared" ref="I38:I44" si="1">G38-F38</f>
         <v>2.4000000000000021E-2</v>
       </c>
       <c r="J38">
-        <f t="shared" ref="J38:J45" si="2">H38*2</f>
+        <f t="shared" ref="J38:J44" si="2">H38*2</f>
         <v>7.3400000000000007E-2</v>
       </c>
     </row>
-    <row r="39" spans="6:10" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="6:10" ht="23.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F39">
         <f t="shared" si="0"/>
         <v>0.47899999999999998</v>
       </c>
-      <c r="G39" s="40">
+      <c r="G39" s="34">
         <v>0.52100000000000002</v>
       </c>
-      <c r="H39" s="40">
+      <c r="H39" s="34">
         <v>3.3099999999999997E-2</v>
       </c>
-      <c r="I39" s="41">
+      <c r="I39" s="35">
         <f t="shared" si="1"/>
         <v>4.2000000000000037E-2</v>
       </c>
@@ -3549,16 +3541,16 @@
         <v>6.6199999999999995E-2</v>
       </c>
     </row>
-    <row r="40" spans="6:10" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="6:10" ht="23.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F40" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="G40" s="40" t="s">
-        <v>164</v>
-      </c>
-      <c r="H40" s="41"/>
-      <c r="I40" s="41" t="e">
+      <c r="G40" s="34" t="s">
+        <v>163</v>
+      </c>
+      <c r="H40" s="35"/>
+      <c r="I40" s="35" t="e">
         <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
@@ -3567,18 +3559,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="6:10" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="6:10" ht="23.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F41">
         <f t="shared" si="0"/>
         <v>0.46899999999999997</v>
       </c>
-      <c r="G41" s="40">
+      <c r="G41" s="34">
         <v>0.53100000000000003</v>
       </c>
-      <c r="H41" s="40">
+      <c r="H41" s="34">
         <v>3.5900000000000001E-2</v>
       </c>
-      <c r="I41" s="41">
+      <c r="I41" s="35">
         <f t="shared" si="1"/>
         <v>6.2000000000000055E-2</v>
       </c>
@@ -3587,96 +3579,176 @@
         <v>7.1800000000000003E-2</v>
       </c>
     </row>
-    <row r="42" spans="6:10" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="6:10" ht="23.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F42">
         <f t="shared" si="0"/>
-        <v>0.38300000000000001</v>
-      </c>
-      <c r="G42" s="42">
-        <v>0.61699999999999999</v>
-      </c>
-      <c r="H42" s="42">
-        <v>0.109</v>
-      </c>
-      <c r="I42" s="41">
+        <v>0.48499999999999999</v>
+      </c>
+      <c r="G42" s="36">
+        <v>0.51500000000000001</v>
+      </c>
+      <c r="H42" s="36">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="I42" s="35">
         <f t="shared" si="1"/>
-        <v>0.23399999999999999</v>
+        <v>3.0000000000000027E-2</v>
       </c>
       <c r="J42">
         <f t="shared" si="2"/>
-        <v>0.218</v>
-      </c>
-    </row>
-    <row r="43" spans="6:10" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+        <v>9.1999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="6:10" ht="23.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F43">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="G43" s="42"/>
-      <c r="H43" s="42"/>
-      <c r="I43" s="41">
+        <v>0.49299999999999999</v>
+      </c>
+      <c r="G43" s="36">
+        <v>0.50700000000000001</v>
+      </c>
+      <c r="H43" s="36">
+        <v>3.4500000000000003E-2</v>
+      </c>
+      <c r="I43" s="35">
         <f t="shared" si="1"/>
-        <v>-1</v>
+        <v>1.4000000000000012E-2</v>
       </c>
       <c r="J43">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="6:10" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+        <v>6.9000000000000006E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="6:10" ht="23.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F44">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="G44" s="42"/>
-      <c r="H44" s="42"/>
-      <c r="I44" s="41">
+        <v>0.5</v>
+      </c>
+      <c r="G44" s="36">
+        <v>0.5</v>
+      </c>
+      <c r="H44" s="36">
+        <v>4.3799999999999999E-2</v>
+      </c>
+      <c r="I44" s="35">
         <f t="shared" si="1"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="J44">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="6:10" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F45">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="G45" s="42"/>
-      <c r="H45" s="42"/>
-      <c r="I45" s="41">
-        <f t="shared" si="1"/>
-        <v>-1</v>
-      </c>
-      <c r="J45">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>8.7599999999999997E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="G45">
+        <f>MEDIAN(G37:G44)</f>
+        <v>0.51500000000000001</v>
+      </c>
+      <c r="H45">
+        <f>MEDIAN(H37:H44)</f>
+        <v>3.6700000000000003E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="I47">
+        <f>F37-2*H37</f>
+        <v>0.3972</v>
+      </c>
+      <c r="J47">
+        <f>F37+2*H37</f>
+        <v>0.55079999999999996</v>
+      </c>
+    </row>
+    <row r="48" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="I48">
+        <f>F38-2*H38</f>
+        <v>0.41459999999999997</v>
+      </c>
+      <c r="J48">
+        <f>F38+2*H38</f>
+        <v>0.56140000000000001</v>
+      </c>
+    </row>
+    <row r="49" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I49">
+        <f>F39-2*H39</f>
+        <v>0.4128</v>
+      </c>
+      <c r="J49">
+        <f>F39+2*H39</f>
+        <v>0.54520000000000002</v>
+      </c>
+    </row>
+    <row r="50" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I50" t="e">
+        <f>F40-2*H40</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J50" t="e">
+        <f>F40+2*H40</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="51" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I51">
+        <f>F41-2*H41</f>
+        <v>0.3972</v>
+      </c>
+      <c r="J51">
+        <f>F41+2*H41</f>
+        <v>0.54079999999999995</v>
+      </c>
+    </row>
+    <row r="52" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I52">
+        <f>F42-2*H42</f>
+        <v>0.39300000000000002</v>
+      </c>
+      <c r="J52">
+        <f>F42+2*H42</f>
+        <v>0.57699999999999996</v>
+      </c>
+    </row>
+    <row r="53" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I53">
+        <f>F43-2*H43</f>
+        <v>0.42399999999999999</v>
+      </c>
+      <c r="J53">
+        <f>F43+2*H43</f>
+        <v>0.56200000000000006</v>
+      </c>
+    </row>
+    <row r="54" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I54">
+        <f>F44-2*H44</f>
+        <v>0.41239999999999999</v>
+      </c>
+      <c r="J54">
+        <f>F44+2*H44</f>
+        <v>0.58760000000000001</v>
+      </c>
+    </row>
+    <row r="55" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I55" t="e">
+        <f>#REF!-2*#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="J55" t="e">
+        <f>#REF!+2*#REF!</f>
+        <v>#REF!</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="K22:K23"/>
-    <mergeCell ref="L22:L23"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="I22:I23"/>
-    <mergeCell ref="J22:J23"/>
-    <mergeCell ref="F19:L19"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="I20:I21"/>
-    <mergeCell ref="J20:J21"/>
-    <mergeCell ref="K20:K21"/>
-    <mergeCell ref="L20:L21"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="J17:J18"/>
+    <mergeCell ref="F6:L6"/>
+    <mergeCell ref="F7:F14"/>
+    <mergeCell ref="G7:G14"/>
+    <mergeCell ref="H7:H14"/>
+    <mergeCell ref="I7:I14"/>
+    <mergeCell ref="J7:J14"/>
+    <mergeCell ref="K7:K14"/>
+    <mergeCell ref="L7:L10"/>
     <mergeCell ref="K17:K18"/>
     <mergeCell ref="L17:L18"/>
     <mergeCell ref="L11:L14"/>
@@ -3687,14 +3759,26 @@
     <mergeCell ref="J15:J16"/>
     <mergeCell ref="K15:K16"/>
     <mergeCell ref="L15:L16"/>
-    <mergeCell ref="F6:L6"/>
-    <mergeCell ref="F7:F14"/>
-    <mergeCell ref="G7:G14"/>
-    <mergeCell ref="H7:H14"/>
-    <mergeCell ref="I7:I14"/>
-    <mergeCell ref="J7:J14"/>
-    <mergeCell ref="K7:K14"/>
-    <mergeCell ref="L7:L10"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="J17:J18"/>
+    <mergeCell ref="F19:L19"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="I20:I21"/>
+    <mergeCell ref="J20:J21"/>
+    <mergeCell ref="K20:K21"/>
+    <mergeCell ref="L20:L21"/>
+    <mergeCell ref="K22:K23"/>
+    <mergeCell ref="L22:L23"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="J22:J23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="300" r:id="rId1"/>
